--- a/スケジュール表.xlsx
+++ b/スケジュール表.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="127">
   <si>
     <t>日程</t>
     <rPh sb="0" eb="2">
@@ -743,6 +743,30 @@
     <rPh sb="0" eb="2">
       <t>ホウコク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完成済み</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完成済み</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完成済み</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仮完成</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仮完成</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完成済み</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2223,12 +2247,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:CF101"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI6" sqref="AI6"/>
+      <selection pane="topRight" activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2254,7 +2277,7 @@
       <c r="B1" s="109"/>
       <c r="C1" s="59">
         <f ca="1">NOW()</f>
-        <v>43559.510534837966</v>
+        <v>43560.659122337966</v>
       </c>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.4">
@@ -2999,7 +3022,7 @@
       <c r="CE6" s="95"/>
       <c r="CF6" s="99"/>
     </row>
-    <row r="7" spans="1:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.4">
       <c r="B7" s="80" t="s">
         <v>28</v>
       </c>
@@ -3075,12 +3098,24 @@
       <c r="Z7" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
+      <c r="AA7" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB7" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC7" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD7" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE7" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF7" s="27" t="s">
+        <v>83</v>
+      </c>
       <c r="AG7" s="27"/>
       <c r="AH7" s="27"/>
       <c r="AI7" s="27"/>
@@ -3134,7 +3169,7 @@
       <c r="CE7" s="27"/>
       <c r="CF7" s="36"/>
     </row>
-    <row r="8" spans="1:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.4">
       <c r="C8" s="80"/>
       <c r="D8" t="s">
         <v>84</v>
@@ -3205,12 +3240,24 @@
       <c r="Z8" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
+      <c r="AA8" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB8" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC8" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD8" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE8" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF8" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AG8" s="27"/>
       <c r="AH8" s="27"/>
       <c r="AI8" s="27"/>
@@ -3264,7 +3311,7 @@
       <c r="CE8" s="27"/>
       <c r="CF8" s="36"/>
     </row>
-    <row r="9" spans="1:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C9" s="80"/>
       <c r="D9" s="4" t="s">
         <v>39</v>
@@ -3335,12 +3382,24 @@
       <c r="Z9" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
+      <c r="AA9" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB9" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC9" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD9" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE9" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF9" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="AG9" s="31"/>
       <c r="AH9" s="31"/>
       <c r="AI9" s="31"/>
@@ -3394,7 +3453,7 @@
       <c r="CE9" s="31"/>
       <c r="CF9" s="45"/>
     </row>
-    <row r="10" spans="1:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.4">
       <c r="C10" s="80"/>
       <c r="D10" t="s">
         <v>40</v>
@@ -3465,12 +3524,24 @@
       <c r="Z10" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="30"/>
+      <c r="AA10" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB10" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC10" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD10" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE10" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF10" s="30" t="s">
+        <v>66</v>
+      </c>
       <c r="AG10" s="30"/>
       <c r="AH10" s="30"/>
       <c r="AI10" s="30"/>
@@ -3524,7 +3595,7 @@
       <c r="CE10" s="30"/>
       <c r="CF10" s="46"/>
     </row>
-    <row r="11" spans="1:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:84" x14ac:dyDescent="0.4">
       <c r="C11" s="80"/>
       <c r="D11" t="s">
         <v>41</v>
@@ -3595,12 +3666,24 @@
       <c r="Z11" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
+      <c r="AA11" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB11" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC11" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD11" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE11" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF11" s="28" t="s">
+        <v>66</v>
+      </c>
       <c r="AG11" s="28"/>
       <c r="AH11" s="28"/>
       <c r="AI11" s="28"/>
@@ -3654,7 +3737,7 @@
       <c r="CE11" s="28"/>
       <c r="CF11" s="47"/>
     </row>
-    <row r="12" spans="1:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C12" s="80"/>
       <c r="D12" s="4" t="s">
         <v>42</v>
@@ -3725,12 +3808,24 @@
       <c r="Z12" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
+      <c r="AA12" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB12" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC12" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD12" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE12" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF12" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="AG12" s="31"/>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -3784,7 +3879,7 @@
       <c r="CE12" s="31"/>
       <c r="CF12" s="45"/>
     </row>
-    <row r="13" spans="1:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.4">
       <c r="C13" s="80"/>
       <c r="D13" t="s">
         <v>43</v>
@@ -3855,12 +3950,24 @@
       <c r="Z13" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
+      <c r="AA13" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB13" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC13" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD13" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE13" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF13" s="30" t="s">
+        <v>66</v>
+      </c>
       <c r="AG13" s="30"/>
       <c r="AH13" s="30"/>
       <c r="AI13" s="30"/>
@@ -3914,7 +4021,7 @@
       <c r="CE13" s="30"/>
       <c r="CF13" s="46"/>
     </row>
-    <row r="14" spans="1:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.4">
       <c r="C14" s="80"/>
       <c r="D14" t="s">
         <v>44</v>
@@ -3985,12 +4092,24 @@
       <c r="Z14" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
+      <c r="AA14" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB14" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC14" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD14" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE14" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF14" s="28" t="s">
+        <v>66</v>
+      </c>
       <c r="AG14" s="28"/>
       <c r="AH14" s="28"/>
       <c r="AI14" s="28"/>
@@ -4044,7 +4163,7 @@
       <c r="CE14" s="28"/>
       <c r="CF14" s="47"/>
     </row>
-    <row r="15" spans="1:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C15" s="80"/>
       <c r="D15" s="4" t="s">
         <v>45</v>
@@ -4115,12 +4234,24 @@
       <c r="Z15" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
+      <c r="AA15" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB15" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC15" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD15" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE15" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF15" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="AG15" s="31"/>
       <c r="AH15" s="31"/>
       <c r="AI15" s="31"/>
@@ -4174,7 +4305,7 @@
       <c r="CE15" s="31"/>
       <c r="CF15" s="45"/>
     </row>
-    <row r="16" spans="1:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:84" x14ac:dyDescent="0.4">
       <c r="C16" s="80"/>
       <c r="D16" t="s">
         <v>46</v>
@@ -4245,12 +4376,24 @@
       <c r="Z16" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
+      <c r="AA16" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB16" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC16" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD16" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE16" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF16" s="30" t="s">
+        <v>66</v>
+      </c>
       <c r="AG16" s="30"/>
       <c r="AH16" s="30"/>
       <c r="AI16" s="30"/>
@@ -4304,7 +4447,7 @@
       <c r="CE16" s="30"/>
       <c r="CF16" s="46"/>
     </row>
-    <row r="17" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C17" s="80"/>
       <c r="D17" t="s">
         <v>47</v>
@@ -4375,12 +4518,24 @@
       <c r="Z17" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
+      <c r="AA17" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB17" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC17" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD17" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE17" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF17" s="28" t="s">
+        <v>66</v>
+      </c>
       <c r="AG17" s="28"/>
       <c r="AH17" s="28"/>
       <c r="AI17" s="28"/>
@@ -4434,7 +4589,7 @@
       <c r="CE17" s="28"/>
       <c r="CF17" s="47"/>
     </row>
-    <row r="18" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C18" s="80"/>
       <c r="D18" s="4" t="s">
         <v>48</v>
@@ -4505,12 +4660,24 @@
       <c r="Z18" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
+      <c r="AA18" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB18" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC18" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD18" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE18" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF18" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="AG18" s="31"/>
       <c r="AH18" s="31"/>
       <c r="AI18" s="31"/>
@@ -4564,7 +4731,7 @@
       <c r="CE18" s="31"/>
       <c r="CF18" s="45"/>
     </row>
-    <row r="19" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C19" s="80"/>
       <c r="D19" t="s">
         <v>49</v>
@@ -4635,12 +4802,24 @@
       <c r="Z19" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
+      <c r="AA19" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB19" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC19" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD19" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE19" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF19" s="30" t="s">
+        <v>66</v>
+      </c>
       <c r="AG19" s="30"/>
       <c r="AH19" s="30"/>
       <c r="AI19" s="30"/>
@@ -4694,7 +4873,7 @@
       <c r="CE19" s="30"/>
       <c r="CF19" s="46"/>
     </row>
-    <row r="20" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C20" s="80"/>
       <c r="D20" t="s">
         <v>50</v>
@@ -4765,12 +4944,24 @@
       <c r="Z20" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
+      <c r="AA20" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB20" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC20" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD20" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE20" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF20" s="28" t="s">
+        <v>66</v>
+      </c>
       <c r="AG20" s="28"/>
       <c r="AH20" s="28"/>
       <c r="AI20" s="28"/>
@@ -4824,7 +5015,7 @@
       <c r="CE20" s="28"/>
       <c r="CF20" s="47"/>
     </row>
-    <row r="21" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C21" s="20"/>
       <c r="D21" s="4" t="s">
         <v>51</v>
@@ -4895,12 +5086,24 @@
       <c r="Z21" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="31"/>
+      <c r="AA21" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB21" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC21" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD21" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE21" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF21" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="AG21" s="31"/>
       <c r="AH21" s="31"/>
       <c r="AI21" s="31"/>
@@ -4954,7 +5157,7 @@
       <c r="CE21" s="31"/>
       <c r="CF21" s="45"/>
     </row>
-    <row r="22" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C22" s="80" t="s">
         <v>87</v>
       </c>
@@ -5027,12 +5230,24 @@
       <c r="Z22" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
+      <c r="AA22" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB22" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC22" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD22" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE22" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF22" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AG22" s="27"/>
       <c r="AH22" s="27"/>
       <c r="AI22" s="27"/>
@@ -5086,7 +5301,7 @@
       <c r="CE22" s="27"/>
       <c r="CF22" s="36"/>
     </row>
-    <row r="23" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C23" s="80"/>
       <c r="D23" t="s">
         <v>23</v>
@@ -5157,12 +5372,24 @@
       <c r="Z23" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
+      <c r="AA23" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB23" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC23" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD23" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE23" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF23" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG23" s="29"/>
       <c r="AH23" s="29"/>
       <c r="AI23" s="29"/>
@@ -5216,7 +5443,7 @@
       <c r="CE23" s="29"/>
       <c r="CF23" s="37"/>
     </row>
-    <row r="24" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C24" s="80"/>
       <c r="D24" t="s">
         <v>89</v>
@@ -5287,12 +5514,24 @@
       <c r="Z24" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="50"/>
+      <c r="AA24" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB24" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC24" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD24" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE24" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF24" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG24" s="50"/>
       <c r="AH24" s="50"/>
       <c r="AI24" s="50"/>
@@ -5346,7 +5585,7 @@
       <c r="CE24" s="50"/>
       <c r="CF24" s="37"/>
     </row>
-    <row r="25" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C25" s="80"/>
       <c r="D25" t="s">
         <v>90</v>
@@ -5417,12 +5656,24 @@
       <c r="Z25" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
+      <c r="AA25" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB25" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC25" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD25" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE25" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF25" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="AG25" s="26"/>
       <c r="AH25" s="26"/>
       <c r="AI25" s="26"/>
@@ -5476,7 +5727,7 @@
       <c r="CE25" s="26"/>
       <c r="CF25" s="42"/>
     </row>
-    <row r="26" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C26" s="20"/>
       <c r="D26" s="4" t="s">
         <v>24</v>
@@ -5547,12 +5798,24 @@
       <c r="Z26" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
+      <c r="AA26" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB26" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC26" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD26" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE26" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF26" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AG26" s="32"/>
       <c r="AH26" s="32"/>
       <c r="AI26" s="32"/>
@@ -5606,7 +5869,7 @@
       <c r="CE26" s="32"/>
       <c r="CF26" s="38"/>
     </row>
-    <row r="27" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C27" s="80" t="s">
         <v>91</v>
       </c>
@@ -5679,12 +5942,24 @@
       <c r="Z27" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="27"/>
+      <c r="AA27" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB27" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC27" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD27" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE27" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF27" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AG27" s="27"/>
       <c r="AH27" s="27"/>
       <c r="AI27" s="27"/>
@@ -5738,7 +6013,7 @@
       <c r="CE27" s="27"/>
       <c r="CF27" s="36"/>
     </row>
-    <row r="28" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C28" s="80"/>
       <c r="D28" t="s">
         <v>23</v>
@@ -5809,12 +6084,24 @@
       <c r="Z28" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="29"/>
+      <c r="AA28" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB28" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC28" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD28" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE28" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF28" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG28" s="29"/>
       <c r="AH28" s="29"/>
       <c r="AI28" s="29"/>
@@ -5868,7 +6155,7 @@
       <c r="CE28" s="29"/>
       <c r="CF28" s="37"/>
     </row>
-    <row r="29" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C29" s="80"/>
       <c r="D29" t="s">
         <v>4</v>
@@ -5939,12 +6226,24 @@
       <c r="Z29" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
+      <c r="AA29" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB29" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC29" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD29" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE29" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF29" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG29" s="29"/>
       <c r="AH29" s="29"/>
       <c r="AI29" s="29"/>
@@ -5998,7 +6297,7 @@
       <c r="CE29" s="29"/>
       <c r="CF29" s="37"/>
     </row>
-    <row r="30" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C30" s="20"/>
       <c r="D30" s="4" t="s">
         <v>25</v>
@@ -6069,12 +6368,24 @@
       <c r="Z30" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="32"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="32"/>
-      <c r="AF30" s="32"/>
+      <c r="AA30" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB30" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC30" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD30" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE30" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF30" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AG30" s="32"/>
       <c r="AH30" s="32"/>
       <c r="AI30" s="32"/>
@@ -6128,7 +6439,7 @@
       <c r="CE30" s="32"/>
       <c r="CF30" s="38"/>
     </row>
-    <row r="31" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C31" s="80" t="s">
         <v>73</v>
       </c>
@@ -6201,12 +6512,24 @@
       <c r="Z31" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="27"/>
-      <c r="AF31" s="27"/>
+      <c r="AA31" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB31" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC31" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD31" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE31" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF31" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AG31" s="27"/>
       <c r="AH31" s="27"/>
       <c r="AI31" s="27"/>
@@ -6260,7 +6583,7 @@
       <c r="CE31" s="27"/>
       <c r="CF31" s="36"/>
     </row>
-    <row r="32" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C32" s="80"/>
       <c r="D32" t="s">
         <v>4</v>
@@ -6331,12 +6654,24 @@
       <c r="Z32" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA32" s="29"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="29"/>
-      <c r="AE32" s="29"/>
-      <c r="AF32" s="29"/>
+      <c r="AA32" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB32" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC32" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD32" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE32" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF32" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG32" s="29"/>
       <c r="AH32" s="29"/>
       <c r="AI32" s="29"/>
@@ -6390,7 +6725,7 @@
       <c r="CE32" s="29"/>
       <c r="CF32" s="37"/>
     </row>
-    <row r="33" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C33" s="20"/>
       <c r="D33" s="4" t="s">
         <v>30</v>
@@ -6461,12 +6796,24 @@
       <c r="Z33" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
-      <c r="AF33" s="32"/>
+      <c r="AA33" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB33" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC33" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD33" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE33" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF33" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AG33" s="32"/>
       <c r="AH33" s="32"/>
       <c r="AI33" s="32"/>
@@ -6520,7 +6867,7 @@
       <c r="CE33" s="32"/>
       <c r="CF33" s="38"/>
     </row>
-    <row r="34" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C34" s="80" t="s">
         <v>35</v>
       </c>
@@ -6593,12 +6940,24 @@
       <c r="Z34" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="27"/>
-      <c r="AD34" s="27"/>
-      <c r="AE34" s="27"/>
-      <c r="AF34" s="27"/>
+      <c r="AA34" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB34" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC34" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD34" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE34" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF34" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AG34" s="27"/>
       <c r="AH34" s="27"/>
       <c r="AI34" s="27"/>
@@ -6652,7 +7011,7 @@
       <c r="CE34" s="27"/>
       <c r="CF34" s="36"/>
     </row>
-    <row r="35" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C35" s="80"/>
       <c r="D35" t="s">
         <v>4</v>
@@ -6723,12 +7082,24 @@
       <c r="Z35" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA35" s="29"/>
-      <c r="AB35" s="29"/>
-      <c r="AC35" s="29"/>
-      <c r="AD35" s="29"/>
-      <c r="AE35" s="29"/>
-      <c r="AF35" s="29"/>
+      <c r="AA35" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB35" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC35" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD35" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE35" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF35" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG35" s="29"/>
       <c r="AH35" s="29"/>
       <c r="AI35" s="29"/>
@@ -6782,7 +7153,7 @@
       <c r="CE35" s="29"/>
       <c r="CF35" s="37"/>
     </row>
-    <row r="36" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C36" s="20"/>
       <c r="D36" s="4" t="s">
         <v>36</v>
@@ -6853,12 +7224,24 @@
       <c r="Z36" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="32"/>
-      <c r="AF36" s="32"/>
+      <c r="AA36" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB36" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC36" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD36" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE36" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF36" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AG36" s="32"/>
       <c r="AH36" s="32"/>
       <c r="AI36" s="32"/>
@@ -6912,7 +7295,7 @@
       <c r="CE36" s="32"/>
       <c r="CF36" s="38"/>
     </row>
-    <row r="37" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C37" s="80" t="s">
         <v>31</v>
       </c>
@@ -6985,12 +7368,24 @@
       <c r="Z37" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="27"/>
-      <c r="AE37" s="27"/>
-      <c r="AF37" s="27"/>
+      <c r="AA37" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB37" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC37" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD37" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE37" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF37" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AG37" s="27"/>
       <c r="AH37" s="27"/>
       <c r="AI37" s="27"/>
@@ -7044,7 +7439,7 @@
       <c r="CE37" s="27"/>
       <c r="CF37" s="36"/>
     </row>
-    <row r="38" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C38" s="80"/>
       <c r="D38" t="s">
         <v>4</v>
@@ -7115,12 +7510,24 @@
       <c r="Z38" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA38" s="29"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="29"/>
-      <c r="AF38" s="29"/>
+      <c r="AA38" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB38" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC38" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD38" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE38" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF38" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG38" s="29"/>
       <c r="AH38" s="29"/>
       <c r="AI38" s="29"/>
@@ -7174,7 +7581,7 @@
       <c r="CE38" s="29"/>
       <c r="CF38" s="37"/>
     </row>
-    <row r="39" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C39" s="20"/>
       <c r="D39" s="4" t="s">
         <v>23</v>
@@ -7245,12 +7652,24 @@
       <c r="Z39" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AA39" s="32"/>
-      <c r="AB39" s="32"/>
-      <c r="AC39" s="32"/>
-      <c r="AD39" s="32"/>
-      <c r="AE39" s="32"/>
-      <c r="AF39" s="32"/>
+      <c r="AA39" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB39" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC39" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD39" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE39" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF39" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AG39" s="32"/>
       <c r="AH39" s="32"/>
       <c r="AI39" s="32"/>
@@ -7304,7 +7723,7 @@
       <c r="CE39" s="32"/>
       <c r="CF39" s="38"/>
     </row>
-    <row r="40" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C40" s="80" t="s">
         <v>32</v>
       </c>
@@ -7377,12 +7796,24 @@
       <c r="Z40" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AA40" s="27"/>
-      <c r="AB40" s="27"/>
-      <c r="AC40" s="27"/>
-      <c r="AD40" s="27"/>
-      <c r="AE40" s="27"/>
-      <c r="AF40" s="27"/>
+      <c r="AA40" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB40" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC40" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD40" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE40" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF40" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AG40" s="27"/>
       <c r="AH40" s="27"/>
       <c r="AI40" s="27"/>
@@ -7436,7 +7867,7 @@
       <c r="CE40" s="27"/>
       <c r="CF40" s="36"/>
     </row>
-    <row r="41" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C41" s="80"/>
       <c r="D41" t="s">
         <v>4</v>
@@ -7507,12 +7938,24 @@
       <c r="Z41" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
-      <c r="AE41" s="29"/>
-      <c r="AF41" s="29"/>
+      <c r="AA41" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB41" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC41" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD41" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE41" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF41" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG41" s="29"/>
       <c r="AH41" s="29"/>
       <c r="AI41" s="29"/>
@@ -7566,7 +8009,7 @@
       <c r="CE41" s="29"/>
       <c r="CF41" s="37"/>
     </row>
-    <row r="42" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C42" s="20"/>
       <c r="D42" s="4" t="s">
         <v>23</v>
@@ -7637,12 +8080,24 @@
       <c r="Z42" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AA42" s="32"/>
-      <c r="AB42" s="32"/>
-      <c r="AC42" s="32"/>
-      <c r="AD42" s="32"/>
-      <c r="AE42" s="32"/>
-      <c r="AF42" s="32"/>
+      <c r="AA42" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB42" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC42" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD42" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE42" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF42" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AG42" s="32"/>
       <c r="AH42" s="32"/>
       <c r="AI42" s="32"/>
@@ -7696,7 +8151,7 @@
       <c r="CE42" s="32"/>
       <c r="CF42" s="38"/>
     </row>
-    <row r="43" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C43" s="80" t="s">
         <v>33</v>
       </c>
@@ -7769,12 +8224,24 @@
       <c r="Z43" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
-      <c r="AD43" s="27"/>
-      <c r="AE43" s="27"/>
-      <c r="AF43" s="27"/>
+      <c r="AA43" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB43" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC43" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD43" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE43" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF43" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AG43" s="27"/>
       <c r="AH43" s="27"/>
       <c r="AI43" s="27"/>
@@ -7828,7 +8295,7 @@
       <c r="CE43" s="27"/>
       <c r="CF43" s="36"/>
     </row>
-    <row r="44" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C44" s="80"/>
       <c r="D44" t="s">
         <v>4</v>
@@ -7899,12 +8366,24 @@
       <c r="Z44" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
-      <c r="AE44" s="29"/>
-      <c r="AF44" s="29"/>
+      <c r="AA44" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB44" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC44" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD44" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE44" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF44" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG44" s="29"/>
       <c r="AH44" s="29"/>
       <c r="AI44" s="29"/>
@@ -7958,7 +8437,7 @@
       <c r="CE44" s="29"/>
       <c r="CF44" s="37"/>
     </row>
-    <row r="45" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C45" s="20"/>
       <c r="D45" s="4" t="s">
         <v>23</v>
@@ -8029,12 +8508,24 @@
       <c r="Z45" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AA45" s="32"/>
-      <c r="AB45" s="32"/>
-      <c r="AC45" s="32"/>
-      <c r="AD45" s="32"/>
-      <c r="AE45" s="32"/>
-      <c r="AF45" s="32"/>
+      <c r="AA45" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB45" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC45" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD45" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE45" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF45" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AG45" s="32"/>
       <c r="AH45" s="32"/>
       <c r="AI45" s="32"/>
@@ -8088,7 +8579,7 @@
       <c r="CE45" s="32"/>
       <c r="CF45" s="38"/>
     </row>
-    <row r="46" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C46" s="80" t="s">
         <v>72</v>
       </c>
@@ -8161,12 +8652,24 @@
       <c r="Z46" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AA46" s="27"/>
-      <c r="AB46" s="27"/>
-      <c r="AC46" s="27"/>
-      <c r="AD46" s="27"/>
-      <c r="AE46" s="27"/>
-      <c r="AF46" s="27"/>
+      <c r="AA46" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB46" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC46" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD46" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE46" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF46" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AG46" s="27"/>
       <c r="AH46" s="27"/>
       <c r="AI46" s="27"/>
@@ -8220,7 +8723,7 @@
       <c r="CE46" s="27"/>
       <c r="CF46" s="36"/>
     </row>
-    <row r="47" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C47" s="80"/>
       <c r="D47" t="s">
         <v>4</v>
@@ -8291,12 +8794,24 @@
       <c r="Z47" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="29"/>
-      <c r="AF47" s="29"/>
+      <c r="AA47" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB47" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC47" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD47" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE47" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF47" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG47" s="29"/>
       <c r="AH47" s="29"/>
       <c r="AI47" s="29"/>
@@ -8350,7 +8865,7 @@
       <c r="CE47" s="29"/>
       <c r="CF47" s="37"/>
     </row>
-    <row r="48" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C48" s="20"/>
       <c r="D48" s="4" t="s">
         <v>74</v>
@@ -8421,12 +8936,24 @@
       <c r="Z48" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AA48" s="32"/>
-      <c r="AB48" s="32"/>
-      <c r="AC48" s="32"/>
-      <c r="AD48" s="32"/>
-      <c r="AE48" s="32"/>
-      <c r="AF48" s="32"/>
+      <c r="AA48" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB48" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC48" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD48" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE48" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF48" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AG48" s="32"/>
       <c r="AH48" s="32"/>
       <c r="AI48" s="32"/>
@@ -8480,7 +9007,7 @@
       <c r="CE48" s="32"/>
       <c r="CF48" s="38"/>
     </row>
-    <row r="49" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C49" s="80" t="s">
         <v>6</v>
       </c>
@@ -8553,12 +9080,24 @@
       <c r="Z49" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AA49" s="27"/>
-      <c r="AB49" s="27"/>
-      <c r="AC49" s="27"/>
-      <c r="AD49" s="27"/>
-      <c r="AE49" s="27"/>
-      <c r="AF49" s="27"/>
+      <c r="AA49" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB49" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC49" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD49" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE49" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF49" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AG49" s="27"/>
       <c r="AH49" s="27"/>
       <c r="AI49" s="27"/>
@@ -8612,7 +9151,7 @@
       <c r="CE49" s="27"/>
       <c r="CF49" s="36"/>
     </row>
-    <row r="50" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C50" s="20"/>
       <c r="D50" s="4" t="s">
         <v>4</v>
@@ -8683,12 +9222,24 @@
       <c r="Z50" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AA50" s="32"/>
-      <c r="AB50" s="32"/>
-      <c r="AC50" s="32"/>
-      <c r="AD50" s="32"/>
-      <c r="AE50" s="32"/>
-      <c r="AF50" s="32"/>
+      <c r="AA50" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB50" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC50" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD50" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE50" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF50" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AG50" s="32"/>
       <c r="AH50" s="32"/>
       <c r="AI50" s="32"/>
@@ -8742,7 +9293,7 @@
       <c r="CE50" s="32"/>
       <c r="CF50" s="38"/>
     </row>
-    <row r="51" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C51" s="80" t="s">
         <v>7</v>
       </c>
@@ -8815,12 +9366,24 @@
       <c r="Z51" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AA51" s="27"/>
-      <c r="AB51" s="27"/>
-      <c r="AC51" s="27"/>
-      <c r="AD51" s="27"/>
-      <c r="AE51" s="27"/>
-      <c r="AF51" s="27"/>
+      <c r="AA51" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB51" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC51" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD51" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE51" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF51" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AG51" s="27"/>
       <c r="AH51" s="27"/>
       <c r="AI51" s="27"/>
@@ -8874,7 +9437,7 @@
       <c r="CE51" s="27"/>
       <c r="CF51" s="36"/>
     </row>
-    <row r="52" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C52" s="80"/>
       <c r="D52" t="s">
         <v>4</v>
@@ -8945,12 +9508,24 @@
       <c r="Z52" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA52" s="29"/>
-      <c r="AB52" s="29"/>
-      <c r="AC52" s="29"/>
-      <c r="AD52" s="29"/>
-      <c r="AE52" s="29"/>
-      <c r="AF52" s="29"/>
+      <c r="AA52" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB52" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC52" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD52" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE52" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF52" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG52" s="29"/>
       <c r="AH52" s="29"/>
       <c r="AI52" s="29"/>
@@ -9004,7 +9579,7 @@
       <c r="CE52" s="29"/>
       <c r="CF52" s="37"/>
     </row>
-    <row r="53" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C53" s="20"/>
       <c r="D53" s="4" t="s">
         <v>23</v>
@@ -9075,12 +9650,24 @@
       <c r="Z53" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AA53" s="32"/>
-      <c r="AB53" s="32"/>
-      <c r="AC53" s="32"/>
-      <c r="AD53" s="32"/>
-      <c r="AE53" s="32"/>
-      <c r="AF53" s="32"/>
+      <c r="AA53" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB53" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC53" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD53" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE53" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF53" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AG53" s="32"/>
       <c r="AH53" s="32"/>
       <c r="AI53" s="32"/>
@@ -9134,7 +9721,7 @@
       <c r="CE53" s="32"/>
       <c r="CF53" s="38"/>
     </row>
-    <row r="54" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C54" s="80" t="s">
         <v>52</v>
       </c>
@@ -9207,12 +9794,24 @@
       <c r="Z54" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AA54" s="49"/>
-      <c r="AB54" s="49"/>
-      <c r="AC54" s="49"/>
-      <c r="AD54" s="49"/>
-      <c r="AE54" s="49"/>
-      <c r="AF54" s="49"/>
+      <c r="AA54" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB54" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC54" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD54" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE54" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF54" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AG54" s="49"/>
       <c r="AH54" s="49"/>
       <c r="AI54" s="49"/>
@@ -9266,7 +9865,7 @@
       <c r="CE54" s="49"/>
       <c r="CF54" s="44"/>
     </row>
-    <row r="55" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C55" s="80"/>
       <c r="D55" t="s">
         <v>4</v>
@@ -9337,12 +9936,24 @@
       <c r="Z55" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA55" s="50"/>
-      <c r="AB55" s="50"/>
-      <c r="AC55" s="50"/>
-      <c r="AD55" s="50"/>
-      <c r="AE55" s="50"/>
-      <c r="AF55" s="50"/>
+      <c r="AA55" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB55" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC55" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD55" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE55" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF55" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG55" s="50"/>
       <c r="AH55" s="50"/>
       <c r="AI55" s="50"/>
@@ -9396,7 +10007,7 @@
       <c r="CE55" s="50"/>
       <c r="CF55" s="37"/>
     </row>
-    <row r="56" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C56" s="80"/>
       <c r="D56" t="s">
         <v>75</v>
@@ -9461,12 +10072,24 @@
       <c r="Z56" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA56" s="50"/>
-      <c r="AB56" s="50"/>
-      <c r="AC56" s="50"/>
-      <c r="AD56" s="50"/>
-      <c r="AE56" s="50"/>
-      <c r="AF56" s="50"/>
+      <c r="AA56" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB56" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC56" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD56" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE56" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF56" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG56" s="50"/>
       <c r="AH56" s="50"/>
       <c r="AI56" s="50"/>
@@ -9520,7 +10143,7 @@
       <c r="CE56" s="50"/>
       <c r="CF56" s="37"/>
     </row>
-    <row r="57" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C57" s="80"/>
       <c r="D57" t="s">
         <v>55</v>
@@ -9591,12 +10214,24 @@
       <c r="Z57" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA57" s="50"/>
-      <c r="AB57" s="50"/>
-      <c r="AC57" s="50"/>
-      <c r="AD57" s="50"/>
-      <c r="AE57" s="50"/>
-      <c r="AF57" s="50"/>
+      <c r="AA57" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB57" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC57" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD57" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE57" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF57" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG57" s="50"/>
       <c r="AH57" s="50"/>
       <c r="AI57" s="50"/>
@@ -9650,7 +10285,7 @@
       <c r="CE57" s="50"/>
       <c r="CF57" s="37"/>
     </row>
-    <row r="58" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C58" s="80"/>
       <c r="D58" t="s">
         <v>57</v>
@@ -9721,12 +10356,24 @@
       <c r="Z58" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA58" s="50"/>
-      <c r="AB58" s="50"/>
-      <c r="AC58" s="50"/>
-      <c r="AD58" s="50"/>
-      <c r="AE58" s="50"/>
-      <c r="AF58" s="50"/>
+      <c r="AA58" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB58" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC58" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD58" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE58" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF58" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG58" s="50"/>
       <c r="AH58" s="50"/>
       <c r="AI58" s="50"/>
@@ -9780,7 +10427,7 @@
       <c r="CE58" s="50"/>
       <c r="CF58" s="37"/>
     </row>
-    <row r="59" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C59" s="20"/>
       <c r="D59" s="4" t="s">
         <v>59</v>
@@ -9851,12 +10498,24 @@
       <c r="Z59" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="AA59" s="51"/>
-      <c r="AB59" s="51"/>
-      <c r="AC59" s="51"/>
-      <c r="AD59" s="51"/>
-      <c r="AE59" s="51"/>
-      <c r="AF59" s="51"/>
+      <c r="AA59" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB59" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC59" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD59" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE59" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF59" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="AG59" s="51"/>
       <c r="AH59" s="51"/>
       <c r="AI59" s="51"/>
@@ -9910,7 +10569,7 @@
       <c r="CE59" s="51"/>
       <c r="CF59" s="38"/>
     </row>
-    <row r="60" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C60" s="80" t="s">
         <v>53</v>
       </c>
@@ -9983,12 +10642,24 @@
       <c r="Z60" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AA60" s="27"/>
-      <c r="AB60" s="27"/>
-      <c r="AC60" s="27"/>
-      <c r="AD60" s="27"/>
-      <c r="AE60" s="27"/>
-      <c r="AF60" s="27"/>
+      <c r="AA60" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB60" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC60" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD60" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE60" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF60" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AG60" s="27"/>
       <c r="AH60" s="27"/>
       <c r="AI60" s="27"/>
@@ -10042,7 +10713,7 @@
       <c r="CE60" s="27"/>
       <c r="CF60" s="36"/>
     </row>
-    <row r="61" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C61" s="80"/>
       <c r="D61" t="s">
         <v>4</v>
@@ -10113,12 +10784,24 @@
       <c r="Z61" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA61" s="29"/>
-      <c r="AB61" s="29"/>
-      <c r="AC61" s="29"/>
-      <c r="AD61" s="29"/>
-      <c r="AE61" s="29"/>
-      <c r="AF61" s="29"/>
+      <c r="AA61" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB61" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC61" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD61" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE61" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF61" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG61" s="29"/>
       <c r="AH61" s="29"/>
       <c r="AI61" s="29"/>
@@ -10172,7 +10855,7 @@
       <c r="CE61" s="29"/>
       <c r="CF61" s="37"/>
     </row>
-    <row r="62" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C62" s="80"/>
       <c r="D62" t="s">
         <v>71</v>
@@ -10243,12 +10926,24 @@
       <c r="Z62" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA62" s="29"/>
-      <c r="AB62" s="29"/>
-      <c r="AC62" s="29"/>
-      <c r="AD62" s="29"/>
-      <c r="AE62" s="29"/>
-      <c r="AF62" s="29"/>
+      <c r="AA62" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB62" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC62" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD62" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE62" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF62" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG62" s="29"/>
       <c r="AH62" s="29"/>
       <c r="AI62" s="29"/>
@@ -10302,7 +10997,7 @@
       <c r="CE62" s="29"/>
       <c r="CF62" s="37"/>
     </row>
-    <row r="63" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C63" s="80"/>
       <c r="D63" t="s">
         <v>75</v>
@@ -10367,12 +11062,24 @@
       <c r="Z63" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA63" s="29"/>
-      <c r="AB63" s="29"/>
-      <c r="AC63" s="29"/>
-      <c r="AD63" s="29"/>
-      <c r="AE63" s="29"/>
-      <c r="AF63" s="29"/>
+      <c r="AA63" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB63" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC63" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD63" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE63" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF63" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG63" s="29"/>
       <c r="AH63" s="29"/>
       <c r="AI63" s="29"/>
@@ -10426,7 +11133,7 @@
       <c r="CE63" s="29"/>
       <c r="CF63" s="37"/>
     </row>
-    <row r="64" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C64" s="80"/>
       <c r="D64" t="s">
         <v>54</v>
@@ -10497,12 +11204,24 @@
       <c r="Z64" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA64" s="29"/>
-      <c r="AB64" s="29"/>
-      <c r="AC64" s="29"/>
-      <c r="AD64" s="29"/>
-      <c r="AE64" s="29"/>
-      <c r="AF64" s="29"/>
+      <c r="AA64" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB64" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC64" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD64" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE64" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF64" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG64" s="29"/>
       <c r="AH64" s="29"/>
       <c r="AI64" s="29"/>
@@ -10556,7 +11275,7 @@
       <c r="CE64" s="29"/>
       <c r="CF64" s="37"/>
     </row>
-    <row r="65" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C65" s="80"/>
       <c r="D65" t="s">
         <v>56</v>
@@ -10627,12 +11346,24 @@
       <c r="Z65" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA65" s="29"/>
-      <c r="AB65" s="29"/>
-      <c r="AC65" s="29"/>
-      <c r="AD65" s="29"/>
-      <c r="AE65" s="29"/>
-      <c r="AF65" s="29"/>
+      <c r="AA65" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB65" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC65" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD65" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE65" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF65" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG65" s="29"/>
       <c r="AH65" s="29"/>
       <c r="AI65" s="29"/>
@@ -10686,7 +11417,7 @@
       <c r="CE65" s="29"/>
       <c r="CF65" s="37"/>
     </row>
-    <row r="66" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C66" s="20"/>
       <c r="D66" s="4" t="s">
         <v>58</v>
@@ -10757,12 +11488,24 @@
       <c r="Z66" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AA66" s="32"/>
-      <c r="AB66" s="32"/>
-      <c r="AC66" s="32"/>
-      <c r="AD66" s="32"/>
-      <c r="AE66" s="32"/>
-      <c r="AF66" s="32"/>
+      <c r="AA66" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB66" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC66" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD66" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE66" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF66" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AG66" s="32"/>
       <c r="AH66" s="32"/>
       <c r="AI66" s="32"/>
@@ -10816,7 +11559,7 @@
       <c r="CE66" s="32"/>
       <c r="CF66" s="38"/>
     </row>
-    <row r="67" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C67" s="80" t="s">
         <v>63</v>
       </c>
@@ -10889,12 +11632,24 @@
       <c r="Z67" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AA67" s="12"/>
-      <c r="AB67" s="12"/>
-      <c r="AC67" s="12"/>
-      <c r="AD67" s="12"/>
-      <c r="AE67" s="12"/>
-      <c r="AF67" s="12"/>
+      <c r="AA67" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB67" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC67" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD67" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE67" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF67" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="AG67" s="12"/>
       <c r="AH67" s="12"/>
       <c r="AI67" s="12"/>
@@ -10948,7 +11703,7 @@
       <c r="CE67" s="12"/>
       <c r="CF67" s="43"/>
     </row>
-    <row r="68" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C68" s="80"/>
       <c r="D68" t="s">
         <v>4</v>
@@ -11019,12 +11774,24 @@
       <c r="Z68" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="AA68" s="26"/>
-      <c r="AB68" s="26"/>
-      <c r="AC68" s="26"/>
-      <c r="AD68" s="26"/>
-      <c r="AE68" s="26"/>
-      <c r="AF68" s="26"/>
+      <c r="AA68" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB68" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC68" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD68" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE68" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF68" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="AG68" s="26"/>
       <c r="AH68" s="26"/>
       <c r="AI68" s="26"/>
@@ -11078,7 +11845,7 @@
       <c r="CE68" s="26"/>
       <c r="CF68" s="42"/>
     </row>
-    <row r="69" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C69" s="20"/>
       <c r="D69" s="4" t="s">
         <v>97</v>
@@ -11149,12 +11916,24 @@
       <c r="Z69" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AA69" s="32"/>
-      <c r="AB69" s="32"/>
-      <c r="AC69" s="32"/>
-      <c r="AD69" s="32"/>
-      <c r="AE69" s="32"/>
-      <c r="AF69" s="32"/>
+      <c r="AA69" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB69" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC69" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD69" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE69" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF69" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AG69" s="32"/>
       <c r="AH69" s="32"/>
       <c r="AI69" s="32"/>
@@ -11208,7 +11987,7 @@
       <c r="CE69" s="32"/>
       <c r="CF69" s="38"/>
     </row>
-    <row r="70" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C70" s="80" t="s">
         <v>64</v>
       </c>
@@ -11281,12 +12060,24 @@
       <c r="Z70" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AA70" s="12"/>
-      <c r="AB70" s="12"/>
-      <c r="AC70" s="12"/>
-      <c r="AD70" s="12"/>
-      <c r="AE70" s="12"/>
-      <c r="AF70" s="12"/>
+      <c r="AA70" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB70" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC70" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD70" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE70" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF70" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="AG70" s="12"/>
       <c r="AH70" s="12"/>
       <c r="AI70" s="12"/>
@@ -11340,7 +12131,7 @@
       <c r="CE70" s="12"/>
       <c r="CF70" s="43"/>
     </row>
-    <row r="71" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C71" s="80"/>
       <c r="D71" t="s">
         <v>4</v>
@@ -11411,12 +12202,24 @@
       <c r="Z71" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="AA71" s="26"/>
-      <c r="AB71" s="26"/>
-      <c r="AC71" s="26"/>
-      <c r="AD71" s="26"/>
-      <c r="AE71" s="26"/>
-      <c r="AF71" s="26"/>
+      <c r="AA71" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB71" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC71" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD71" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE71" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF71" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="AG71" s="26"/>
       <c r="AH71" s="26"/>
       <c r="AI71" s="26"/>
@@ -11470,7 +12273,7 @@
       <c r="CE71" s="26"/>
       <c r="CF71" s="42"/>
     </row>
-    <row r="72" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C72" s="20"/>
       <c r="D72" s="4" t="s">
         <v>97</v>
@@ -11541,12 +12344,24 @@
       <c r="Z72" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AA72" s="32"/>
-      <c r="AB72" s="32"/>
-      <c r="AC72" s="32"/>
-      <c r="AD72" s="32"/>
-      <c r="AE72" s="32"/>
-      <c r="AF72" s="32"/>
+      <c r="AA72" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB72" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC72" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD72" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE72" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF72" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AG72" s="32"/>
       <c r="AH72" s="32"/>
       <c r="AI72" s="32"/>
@@ -11600,7 +12415,7 @@
       <c r="CE72" s="32"/>
       <c r="CF72" s="38"/>
     </row>
-    <row r="73" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C73" s="80" t="s">
         <v>65</v>
       </c>
@@ -11673,12 +12488,24 @@
       <c r="Z73" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AA73" s="12"/>
-      <c r="AB73" s="12"/>
-      <c r="AC73" s="12"/>
-      <c r="AD73" s="12"/>
-      <c r="AE73" s="12"/>
-      <c r="AF73" s="12"/>
+      <c r="AA73" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB73" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC73" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD73" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE73" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF73" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="AG73" s="12"/>
       <c r="AH73" s="12"/>
       <c r="AI73" s="12"/>
@@ -11732,7 +12559,7 @@
       <c r="CE73" s="12"/>
       <c r="CF73" s="43"/>
     </row>
-    <row r="74" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C74" s="80"/>
       <c r="D74" t="s">
         <v>4</v>
@@ -11803,12 +12630,24 @@
       <c r="Z74" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="AA74" s="26"/>
-      <c r="AB74" s="26"/>
-      <c r="AC74" s="26"/>
-      <c r="AD74" s="26"/>
-      <c r="AE74" s="26"/>
-      <c r="AF74" s="26"/>
+      <c r="AA74" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB74" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC74" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD74" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE74" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF74" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="AG74" s="26"/>
       <c r="AH74" s="26"/>
       <c r="AI74" s="26"/>
@@ -11862,7 +12701,7 @@
       <c r="CE74" s="26"/>
       <c r="CF74" s="42"/>
     </row>
-    <row r="75" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C75" s="20"/>
       <c r="D75" s="4" t="s">
         <v>99</v>
@@ -11933,12 +12772,24 @@
       <c r="Z75" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AA75" s="32"/>
-      <c r="AB75" s="32"/>
-      <c r="AC75" s="32"/>
-      <c r="AD75" s="32"/>
-      <c r="AE75" s="32"/>
-      <c r="AF75" s="32"/>
+      <c r="AA75" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB75" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC75" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD75" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE75" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF75" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AG75" s="32"/>
       <c r="AH75" s="32"/>
       <c r="AI75" s="32"/>
@@ -11992,7 +12843,7 @@
       <c r="CE75" s="32"/>
       <c r="CF75" s="38"/>
     </row>
-    <row r="76" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C76" s="80" t="s">
         <v>100</v>
       </c>
@@ -12065,12 +12916,24 @@
       <c r="Z76" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AA76" s="27"/>
-      <c r="AB76" s="27"/>
-      <c r="AC76" s="27"/>
-      <c r="AD76" s="27"/>
-      <c r="AE76" s="27"/>
-      <c r="AF76" s="27"/>
+      <c r="AA76" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB76" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC76" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD76" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE76" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF76" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AG76" s="27"/>
       <c r="AH76" s="27"/>
       <c r="AI76" s="27"/>
@@ -12124,7 +12987,7 @@
       <c r="CE76" s="27"/>
       <c r="CF76" s="36"/>
     </row>
-    <row r="77" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C77" s="80"/>
       <c r="D77" t="s">
         <v>4</v>
@@ -12195,12 +13058,24 @@
       <c r="Z77" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA77" s="29"/>
-      <c r="AB77" s="29"/>
-      <c r="AC77" s="29"/>
-      <c r="AD77" s="29"/>
-      <c r="AE77" s="29"/>
-      <c r="AF77" s="29"/>
+      <c r="AA77" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB77" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC77" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD77" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE77" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF77" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG77" s="29"/>
       <c r="AH77" s="29"/>
       <c r="AI77" s="29"/>
@@ -12254,7 +13129,7 @@
       <c r="CE77" s="29"/>
       <c r="CF77" s="37"/>
     </row>
-    <row r="78" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C78" s="80"/>
       <c r="D78" t="s">
         <v>34</v>
@@ -12325,12 +13200,24 @@
       <c r="Z78" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA78" s="29"/>
-      <c r="AB78" s="29"/>
-      <c r="AC78" s="29"/>
-      <c r="AD78" s="29"/>
-      <c r="AE78" s="29"/>
-      <c r="AF78" s="29"/>
+      <c r="AA78" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB78" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC78" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD78" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE78" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF78" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG78" s="29"/>
       <c r="AH78" s="29"/>
       <c r="AI78" s="29"/>
@@ -12384,7 +13271,7 @@
       <c r="CE78" s="29"/>
       <c r="CF78" s="37"/>
     </row>
-    <row r="79" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C79" s="80"/>
       <c r="D79" t="s">
         <v>37</v>
@@ -12455,12 +13342,24 @@
       <c r="Z79" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA79" s="29"/>
-      <c r="AB79" s="29"/>
-      <c r="AC79" s="29"/>
-      <c r="AD79" s="29"/>
-      <c r="AE79" s="29"/>
-      <c r="AF79" s="29"/>
+      <c r="AA79" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB79" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC79" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD79" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE79" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF79" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG79" s="29"/>
       <c r="AH79" s="29"/>
       <c r="AI79" s="29"/>
@@ -12514,7 +13413,7 @@
       <c r="CE79" s="29"/>
       <c r="CF79" s="37"/>
     </row>
-    <row r="80" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C80" s="80"/>
       <c r="D80" t="s">
         <v>76</v>
@@ -12585,12 +13484,24 @@
       <c r="Z80" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA80" s="29"/>
-      <c r="AB80" s="29"/>
-      <c r="AC80" s="29"/>
-      <c r="AD80" s="29"/>
-      <c r="AE80" s="29"/>
-      <c r="AF80" s="29"/>
+      <c r="AA80" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB80" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC80" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD80" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE80" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF80" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AG80" s="29"/>
       <c r="AH80" s="29"/>
       <c r="AI80" s="29"/>
@@ -12644,7 +13555,7 @@
       <c r="CE80" s="29"/>
       <c r="CF80" s="37"/>
     </row>
-    <row r="81" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C81" s="20"/>
       <c r="D81" s="4" t="s">
         <v>77</v>
@@ -12715,12 +13626,24 @@
       <c r="Z81" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AA81" s="32"/>
-      <c r="AB81" s="32"/>
-      <c r="AC81" s="32"/>
-      <c r="AD81" s="32"/>
-      <c r="AE81" s="32"/>
-      <c r="AF81" s="32"/>
+      <c r="AA81" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB81" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC81" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD81" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE81" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF81" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AG81" s="32"/>
       <c r="AH81" s="32"/>
       <c r="AI81" s="32"/>
@@ -12774,7 +13697,7 @@
       <c r="CE81" s="32"/>
       <c r="CF81" s="38"/>
     </row>
-    <row r="82" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C82" s="80" t="s">
         <v>104</v>
       </c>
@@ -12839,12 +13762,24 @@
       <c r="Z82" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AA82" s="27"/>
-      <c r="AB82" s="27"/>
-      <c r="AC82" s="27"/>
-      <c r="AD82" s="27"/>
-      <c r="AE82" s="27"/>
-      <c r="AF82" s="27"/>
+      <c r="AA82" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB82" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC82" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD82" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE82" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF82" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AG82" s="27"/>
       <c r="AH82" s="27"/>
       <c r="AI82" s="27"/>
@@ -12898,7 +13833,7 @@
       <c r="CE82" s="27"/>
       <c r="CF82" s="36"/>
     </row>
-    <row r="83" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C83" s="20"/>
       <c r="D83" s="4" t="s">
         <v>78</v>
@@ -12961,12 +13896,24 @@
       <c r="Z83" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AA83" s="32"/>
-      <c r="AB83" s="32"/>
-      <c r="AC83" s="32"/>
-      <c r="AD83" s="32"/>
-      <c r="AE83" s="32"/>
-      <c r="AF83" s="32"/>
+      <c r="AA83" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB83" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC83" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD83" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE83" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF83" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AG83" s="32"/>
       <c r="AH83" s="32"/>
       <c r="AI83" s="32"/>
@@ -13020,7 +13967,7 @@
       <c r="CE83" s="32"/>
       <c r="CF83" s="38"/>
     </row>
-    <row r="84" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="3:84" x14ac:dyDescent="0.4">
       <c r="C84" s="80" t="s">
         <v>108</v>
       </c>
@@ -13093,12 +14040,24 @@
       <c r="Z84" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AA84" s="27"/>
-      <c r="AB84" s="27"/>
-      <c r="AC84" s="27"/>
-      <c r="AD84" s="27"/>
-      <c r="AE84" s="27"/>
-      <c r="AF84" s="27"/>
+      <c r="AA84" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB84" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC84" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD84" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE84" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF84" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AG84" s="27"/>
       <c r="AH84" s="27"/>
       <c r="AI84" s="27"/>
@@ -13152,7 +14111,7 @@
       <c r="CE84" s="27"/>
       <c r="CF84" s="36"/>
     </row>
-    <row r="85" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C85" s="20"/>
       <c r="D85" s="4" t="s">
         <v>8</v>
@@ -13223,12 +14182,24 @@
       <c r="Z85" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AA85" s="32"/>
-      <c r="AB85" s="32"/>
-      <c r="AC85" s="32"/>
-      <c r="AD85" s="32"/>
-      <c r="AE85" s="32"/>
-      <c r="AF85" s="32"/>
+      <c r="AA85" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB85" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC85" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD85" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE85" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF85" s="32" t="s">
+        <v>121</v>
+      </c>
       <c r="AG85" s="32"/>
       <c r="AH85" s="32"/>
       <c r="AI85" s="32"/>
@@ -13355,12 +14326,24 @@
       <c r="Z86" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="AA86" s="40"/>
-      <c r="AB86" s="40"/>
-      <c r="AC86" s="40"/>
-      <c r="AD86" s="40"/>
-      <c r="AE86" s="40"/>
-      <c r="AF86" s="40"/>
+      <c r="AA86" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB86" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC86" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD86" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE86" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF86" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="AG86" s="40"/>
       <c r="AH86" s="40"/>
       <c r="AI86" s="40"/>
@@ -13485,12 +14468,24 @@
       <c r="Z87" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="AA87" s="40"/>
-      <c r="AB87" s="40"/>
-      <c r="AC87" s="40"/>
-      <c r="AD87" s="40"/>
-      <c r="AE87" s="40"/>
-      <c r="AF87" s="40"/>
+      <c r="AA87" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB87" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC87" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD87" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE87" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF87" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="AG87" s="40"/>
       <c r="AH87" s="40"/>
       <c r="AI87" s="40"/>
@@ -13609,12 +14604,24 @@
       <c r="Z88" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AA88" s="40"/>
-      <c r="AB88" s="40"/>
-      <c r="AC88" s="40"/>
-      <c r="AD88" s="40"/>
-      <c r="AE88" s="40"/>
-      <c r="AF88" s="40"/>
+      <c r="AA88" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB88" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC88" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD88" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE88" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF88" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="AG88" s="40"/>
       <c r="AH88" s="40"/>
       <c r="AI88" s="40"/>
@@ -13741,12 +14748,24 @@
       <c r="Z89" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AA89" s="27"/>
-      <c r="AB89" s="27"/>
-      <c r="AC89" s="27"/>
-      <c r="AD89" s="27"/>
-      <c r="AE89" s="27"/>
-      <c r="AF89" s="27"/>
+      <c r="AA89" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB89" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC89" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD89" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE89" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF89" s="27" t="s">
+        <v>124</v>
+      </c>
       <c r="AG89" s="27"/>
       <c r="AH89" s="27"/>
       <c r="AI89" s="27"/>
@@ -13871,12 +14890,24 @@
       <c r="Z90" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="AA90" s="32"/>
-      <c r="AB90" s="32"/>
-      <c r="AC90" s="32"/>
-      <c r="AD90" s="32"/>
-      <c r="AE90" s="32"/>
-      <c r="AF90" s="32"/>
+      <c r="AA90" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB90" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC90" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD90" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE90" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF90" s="32" t="s">
+        <v>125</v>
+      </c>
       <c r="AG90" s="32"/>
       <c r="AH90" s="32"/>
       <c r="AI90" s="32"/>
@@ -14003,12 +15034,24 @@
       <c r="Z91" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AA91" s="27"/>
-      <c r="AB91" s="27"/>
-      <c r="AC91" s="27"/>
-      <c r="AD91" s="27"/>
-      <c r="AE91" s="27"/>
-      <c r="AF91" s="27"/>
+      <c r="AA91" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB91" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC91" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD91" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE91" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF91" s="27" t="s">
+        <v>68</v>
+      </c>
       <c r="AG91" s="27"/>
       <c r="AH91" s="27"/>
       <c r="AI91" s="27"/>
@@ -14133,12 +15176,24 @@
       <c r="Z92" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="AA92" s="32"/>
-      <c r="AB92" s="32"/>
-      <c r="AC92" s="32"/>
-      <c r="AD92" s="32"/>
-      <c r="AE92" s="32"/>
-      <c r="AF92" s="32"/>
+      <c r="AA92" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB92" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC92" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD92" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE92" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF92" s="32" t="s">
+        <v>68</v>
+      </c>
       <c r="AG92" s="32"/>
       <c r="AH92" s="32"/>
       <c r="AI92" s="32"/>
@@ -14263,12 +15318,24 @@
       <c r="Z93" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="AA93" s="105"/>
-      <c r="AB93" s="105"/>
-      <c r="AC93" s="105"/>
-      <c r="AD93" s="105"/>
-      <c r="AE93" s="105"/>
-      <c r="AF93" s="105"/>
+      <c r="AA93" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB93" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC93" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD93" s="105" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE93" s="105" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF93" s="105" t="s">
+        <v>85</v>
+      </c>
       <c r="AG93" s="105"/>
       <c r="AH93" s="105"/>
       <c r="AI93" s="105"/>
@@ -14345,18 +15412,30 @@
       <c r="T94" s="40"/>
       <c r="U94" s="40"/>
       <c r="V94" s="40"/>
-      <c r="W94" s="40"/>
-      <c r="X94" s="40"/>
+      <c r="W94" s="77"/>
+      <c r="X94" s="54"/>
       <c r="Y94" s="40"/>
       <c r="Z94" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AA94" s="40"/>
-      <c r="AB94" s="40"/>
-      <c r="AC94" s="40"/>
-      <c r="AD94" s="40"/>
-      <c r="AE94" s="40"/>
-      <c r="AF94" s="40"/>
+      <c r="AA94" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB94" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC94" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD94" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE94" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF94" s="40" t="s">
+        <v>122</v>
+      </c>
       <c r="AG94" s="40"/>
       <c r="AH94" s="40"/>
       <c r="AI94" s="40"/>
@@ -14433,18 +15512,30 @@
       <c r="T95" s="40"/>
       <c r="U95" s="40"/>
       <c r="V95" s="40"/>
-      <c r="W95" s="40"/>
-      <c r="X95" s="40"/>
+      <c r="W95" s="77"/>
+      <c r="X95" s="54"/>
       <c r="Y95" s="40"/>
       <c r="Z95" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AA95" s="40"/>
-      <c r="AB95" s="40"/>
-      <c r="AC95" s="40"/>
-      <c r="AD95" s="40"/>
-      <c r="AE95" s="40"/>
-      <c r="AF95" s="40"/>
+      <c r="AA95" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB95" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC95" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD95" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE95" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF95" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="AG95" s="40"/>
       <c r="AH95" s="40"/>
       <c r="AI95" s="40"/>
@@ -14521,18 +15612,30 @@
       <c r="T96" s="40"/>
       <c r="U96" s="40"/>
       <c r="V96" s="40"/>
-      <c r="W96" s="40"/>
-      <c r="X96" s="40"/>
+      <c r="W96" s="77"/>
+      <c r="X96" s="54"/>
       <c r="Y96" s="40"/>
       <c r="Z96" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AA96" s="40"/>
-      <c r="AB96" s="40"/>
-      <c r="AC96" s="40"/>
-      <c r="AD96" s="40"/>
-      <c r="AE96" s="40"/>
-      <c r="AF96" s="40"/>
+      <c r="AA96" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB96" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC96" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD96" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE96" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF96" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="AG96" s="40"/>
       <c r="AH96" s="40"/>
       <c r="AI96" s="40"/>
@@ -14609,18 +15712,30 @@
       <c r="T97" s="40"/>
       <c r="U97" s="40"/>
       <c r="V97" s="40"/>
-      <c r="W97" s="40"/>
-      <c r="X97" s="40"/>
+      <c r="W97" s="77"/>
+      <c r="X97" s="54"/>
       <c r="Y97" s="40"/>
       <c r="Z97" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AA97" s="40"/>
-      <c r="AB97" s="40"/>
-      <c r="AC97" s="40"/>
-      <c r="AD97" s="40"/>
-      <c r="AE97" s="40"/>
-      <c r="AF97" s="40"/>
+      <c r="AA97" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB97" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC97" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD97" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE97" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF97" s="40" t="s">
+        <v>123</v>
+      </c>
       <c r="AG97" s="40"/>
       <c r="AH97" s="40"/>
       <c r="AI97" s="40"/>
@@ -14697,18 +15812,30 @@
       <c r="T98" s="40"/>
       <c r="U98" s="40"/>
       <c r="V98" s="40"/>
-      <c r="W98" s="40"/>
-      <c r="X98" s="40"/>
+      <c r="W98" s="77"/>
+      <c r="X98" s="54"/>
       <c r="Y98" s="40"/>
       <c r="Z98" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AA98" s="40"/>
-      <c r="AB98" s="40"/>
-      <c r="AC98" s="40"/>
-      <c r="AD98" s="40"/>
-      <c r="AE98" s="40"/>
-      <c r="AF98" s="40"/>
+      <c r="AA98" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB98" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC98" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD98" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE98" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF98" s="40" t="s">
+        <v>122</v>
+      </c>
       <c r="AG98" s="40"/>
       <c r="AH98" s="40"/>
       <c r="AI98" s="40"/>
@@ -14785,18 +15912,30 @@
       <c r="T99" s="40"/>
       <c r="U99" s="40"/>
       <c r="V99" s="40"/>
-      <c r="W99" s="40"/>
-      <c r="X99" s="40"/>
+      <c r="W99" s="77"/>
+      <c r="X99" s="54"/>
       <c r="Y99" s="40"/>
       <c r="Z99" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AA99" s="40"/>
-      <c r="AB99" s="40"/>
-      <c r="AC99" s="40"/>
-      <c r="AD99" s="40"/>
-      <c r="AE99" s="40"/>
-      <c r="AF99" s="40"/>
+      <c r="AA99" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB99" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC99" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD99" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE99" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF99" s="40" t="s">
+        <v>124</v>
+      </c>
       <c r="AG99" s="40"/>
       <c r="AH99" s="40"/>
       <c r="AI99" s="40"/>
@@ -14873,18 +16012,30 @@
       <c r="T100" s="40"/>
       <c r="U100" s="40"/>
       <c r="V100" s="40"/>
-      <c r="W100" s="40"/>
-      <c r="X100" s="40"/>
+      <c r="W100" s="77"/>
+      <c r="X100" s="54"/>
       <c r="Y100" s="40"/>
       <c r="Z100" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AA100" s="40"/>
-      <c r="AB100" s="40"/>
-      <c r="AC100" s="40"/>
-      <c r="AD100" s="40"/>
-      <c r="AE100" s="40"/>
-      <c r="AF100" s="40"/>
+      <c r="AA100" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB100" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC100" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD100" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE100" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF100" s="40" t="s">
+        <v>126</v>
+      </c>
       <c r="AG100" s="40"/>
       <c r="AH100" s="40"/>
       <c r="AI100" s="40"/>
@@ -14961,18 +16112,30 @@
       <c r="T101" s="40"/>
       <c r="U101" s="40"/>
       <c r="V101" s="40"/>
-      <c r="W101" s="40"/>
-      <c r="X101" s="40"/>
+      <c r="W101" s="77"/>
+      <c r="X101" s="54"/>
       <c r="Y101" s="40"/>
       <c r="Z101" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AA101" s="40"/>
-      <c r="AB101" s="40"/>
-      <c r="AC101" s="40"/>
-      <c r="AD101" s="40"/>
-      <c r="AE101" s="40"/>
-      <c r="AF101" s="40"/>
+      <c r="AA101" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB101" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC101" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD101" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE101" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF101" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="AG101" s="40"/>
       <c r="AH101" s="40"/>
       <c r="AI101" s="40"/>
@@ -15027,14 +16190,7 @@
       <c r="CF101" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="E6:CF101">
-    <filterColumn colId="21">
-      <filters>
-        <filter val="仮完成"/>
-        <filter val="未完成"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="E6:CF101"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>

--- a/スケジュール表.xlsx
+++ b/スケジュール表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\R422-sv1\共有\今野\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myutu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C49990E-E576-4D8C-B3D1-23453B663536}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$6:$CF$101</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="127">
   <si>
     <t>日程</t>
     <rPh sb="0" eb="2">
@@ -773,7 +774,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2246,12 +2247,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:CF101"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH9" sqref="AH9"/>
+      <pane xSplit="4" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ95" sqref="AJ95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2277,7 +2279,7 @@
       <c r="B1" s="109"/>
       <c r="C1" s="59">
         <f ca="1">NOW()</f>
-        <v>43560.659122337966</v>
+        <v>43565.600652314817</v>
       </c>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.4">
@@ -3022,7 +3024,7 @@
       <c r="CE6" s="95"/>
       <c r="CF6" s="99"/>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="80" t="s">
         <v>28</v>
       </c>
@@ -3116,9 +3118,15 @@
       <c r="AF7" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="27"/>
+      <c r="AG7" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH7" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI7" s="27" t="s">
+        <v>83</v>
+      </c>
       <c r="AJ7" s="27"/>
       <c r="AK7" s="27"/>
       <c r="AL7" s="27"/>
@@ -3169,7 +3177,7 @@
       <c r="CE7" s="27"/>
       <c r="CF7" s="36"/>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="80"/>
       <c r="D8" t="s">
         <v>84</v>
@@ -3258,9 +3266,15 @@
       <c r="AF8" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
+      <c r="AG8" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH8" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI8" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ8" s="27"/>
       <c r="AK8" s="27"/>
       <c r="AL8" s="27"/>
@@ -3311,7 +3325,7 @@
       <c r="CE8" s="27"/>
       <c r="CF8" s="36"/>
     </row>
-    <row r="9" spans="1:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C9" s="80"/>
       <c r="D9" s="4" t="s">
         <v>39</v>
@@ -3400,9 +3414,15 @@
       <c r="AF9" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="31"/>
+      <c r="AG9" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH9" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI9" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ9" s="31"/>
       <c r="AK9" s="31"/>
       <c r="AL9" s="31"/>
@@ -3453,7 +3473,7 @@
       <c r="CE9" s="31"/>
       <c r="CF9" s="45"/>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="80"/>
       <c r="D10" t="s">
         <v>40</v>
@@ -3542,9 +3562,15 @@
       <c r="AF10" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AG10" s="30"/>
-      <c r="AH10" s="30"/>
-      <c r="AI10" s="30"/>
+      <c r="AG10" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH10" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI10" s="30" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ10" s="30"/>
       <c r="AK10" s="30"/>
       <c r="AL10" s="30"/>
@@ -3595,7 +3621,7 @@
       <c r="CE10" s="30"/>
       <c r="CF10" s="46"/>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C11" s="80"/>
       <c r="D11" t="s">
         <v>41</v>
@@ -3684,9 +3710,15 @@
       <c r="AF11" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
+      <c r="AG11" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH11" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI11" s="28" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ11" s="28"/>
       <c r="AK11" s="28"/>
       <c r="AL11" s="28"/>
@@ -3737,7 +3769,7 @@
       <c r="CE11" s="28"/>
       <c r="CF11" s="47"/>
     </row>
-    <row r="12" spans="1:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C12" s="80"/>
       <c r="D12" s="4" t="s">
         <v>42</v>
@@ -3826,9 +3858,15 @@
       <c r="AF12" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="31"/>
-      <c r="AI12" s="31"/>
+      <c r="AG12" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH12" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI12" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ12" s="31"/>
       <c r="AK12" s="31"/>
       <c r="AL12" s="31"/>
@@ -3879,7 +3917,7 @@
       <c r="CE12" s="31"/>
       <c r="CF12" s="45"/>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C13" s="80"/>
       <c r="D13" t="s">
         <v>43</v>
@@ -3968,9 +4006,15 @@
       <c r="AF13" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
+      <c r="AG13" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH13" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI13" s="30" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ13" s="30"/>
       <c r="AK13" s="30"/>
       <c r="AL13" s="30"/>
@@ -4021,7 +4065,7 @@
       <c r="CE13" s="30"/>
       <c r="CF13" s="46"/>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C14" s="80"/>
       <c r="D14" t="s">
         <v>44</v>
@@ -4110,9 +4154,15 @@
       <c r="AF14" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
+      <c r="AG14" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH14" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI14" s="28" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ14" s="28"/>
       <c r="AK14" s="28"/>
       <c r="AL14" s="28"/>
@@ -4163,7 +4213,7 @@
       <c r="CE14" s="28"/>
       <c r="CF14" s="47"/>
     </row>
-    <row r="15" spans="1:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C15" s="80"/>
       <c r="D15" s="4" t="s">
         <v>45</v>
@@ -4252,9 +4302,15 @@
       <c r="AF15" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="31"/>
+      <c r="AG15" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH15" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI15" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ15" s="31"/>
       <c r="AK15" s="31"/>
       <c r="AL15" s="31"/>
@@ -4305,7 +4361,7 @@
       <c r="CE15" s="31"/>
       <c r="CF15" s="45"/>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C16" s="80"/>
       <c r="D16" t="s">
         <v>46</v>
@@ -4394,9 +4450,15 @@
       <c r="AF16" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="30"/>
+      <c r="AG16" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH16" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI16" s="30" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ16" s="30"/>
       <c r="AK16" s="30"/>
       <c r="AL16" s="30"/>
@@ -4447,7 +4509,7 @@
       <c r="CE16" s="30"/>
       <c r="CF16" s="46"/>
     </row>
-    <row r="17" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C17" s="80"/>
       <c r="D17" t="s">
         <v>47</v>
@@ -4536,9 +4598,15 @@
       <c r="AF17" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
+      <c r="AG17" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH17" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI17" s="28" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ17" s="28"/>
       <c r="AK17" s="28"/>
       <c r="AL17" s="28"/>
@@ -4589,7 +4657,7 @@
       <c r="CE17" s="28"/>
       <c r="CF17" s="47"/>
     </row>
-    <row r="18" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C18" s="80"/>
       <c r="D18" s="4" t="s">
         <v>48</v>
@@ -4678,9 +4746,15 @@
       <c r="AF18" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="31"/>
+      <c r="AG18" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH18" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI18" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ18" s="31"/>
       <c r="AK18" s="31"/>
       <c r="AL18" s="31"/>
@@ -4731,7 +4805,7 @@
       <c r="CE18" s="31"/>
       <c r="CF18" s="45"/>
     </row>
-    <row r="19" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C19" s="80"/>
       <c r="D19" t="s">
         <v>49</v>
@@ -4820,9 +4894,15 @@
       <c r="AF19" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="30"/>
+      <c r="AG19" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH19" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI19" s="30" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ19" s="30"/>
       <c r="AK19" s="30"/>
       <c r="AL19" s="30"/>
@@ -4873,7 +4953,7 @@
       <c r="CE19" s="30"/>
       <c r="CF19" s="46"/>
     </row>
-    <row r="20" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C20" s="80"/>
       <c r="D20" t="s">
         <v>50</v>
@@ -4962,9 +5042,15 @@
       <c r="AF20" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
+      <c r="AG20" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH20" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI20" s="28" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ20" s="28"/>
       <c r="AK20" s="28"/>
       <c r="AL20" s="28"/>
@@ -5015,7 +5101,7 @@
       <c r="CE20" s="28"/>
       <c r="CF20" s="47"/>
     </row>
-    <row r="21" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C21" s="20"/>
       <c r="D21" s="4" t="s">
         <v>51</v>
@@ -5104,9 +5190,15 @@
       <c r="AF21" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AG21" s="31"/>
-      <c r="AH21" s="31"/>
-      <c r="AI21" s="31"/>
+      <c r="AG21" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH21" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI21" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ21" s="31"/>
       <c r="AK21" s="31"/>
       <c r="AL21" s="31"/>
@@ -5157,7 +5249,7 @@
       <c r="CE21" s="31"/>
       <c r="CF21" s="45"/>
     </row>
-    <row r="22" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C22" s="80" t="s">
         <v>87</v>
       </c>
@@ -5248,9 +5340,15 @@
       <c r="AF22" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="27"/>
+      <c r="AG22" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH22" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI22" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ22" s="27"/>
       <c r="AK22" s="27"/>
       <c r="AL22" s="27"/>
@@ -5301,7 +5399,7 @@
       <c r="CE22" s="27"/>
       <c r="CF22" s="36"/>
     </row>
-    <row r="23" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C23" s="80"/>
       <c r="D23" t="s">
         <v>23</v>
@@ -5390,9 +5488,15 @@
       <c r="AF23" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="29"/>
-      <c r="AI23" s="29"/>
+      <c r="AG23" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH23" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI23" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ23" s="29"/>
       <c r="AK23" s="29"/>
       <c r="AL23" s="29"/>
@@ -5443,7 +5547,7 @@
       <c r="CE23" s="29"/>
       <c r="CF23" s="37"/>
     </row>
-    <row r="24" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C24" s="80"/>
       <c r="D24" t="s">
         <v>89</v>
@@ -5532,9 +5636,15 @@
       <c r="AF24" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG24" s="50"/>
-      <c r="AH24" s="50"/>
-      <c r="AI24" s="50"/>
+      <c r="AG24" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH24" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI24" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ24" s="50"/>
       <c r="AK24" s="50"/>
       <c r="AL24" s="50"/>
@@ -5585,7 +5695,7 @@
       <c r="CE24" s="50"/>
       <c r="CF24" s="37"/>
     </row>
-    <row r="25" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C25" s="80"/>
       <c r="D25" t="s">
         <v>90</v>
@@ -5674,9 +5784,15 @@
       <c r="AF25" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="26"/>
-      <c r="AI25" s="26"/>
+      <c r="AG25" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH25" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI25" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ25" s="26"/>
       <c r="AK25" s="26"/>
       <c r="AL25" s="26"/>
@@ -5727,7 +5843,7 @@
       <c r="CE25" s="26"/>
       <c r="CF25" s="42"/>
     </row>
-    <row r="26" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C26" s="20"/>
       <c r="D26" s="4" t="s">
         <v>24</v>
@@ -5816,9 +5932,15 @@
       <c r="AF26" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
+      <c r="AG26" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH26" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI26" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ26" s="32"/>
       <c r="AK26" s="32"/>
       <c r="AL26" s="32"/>
@@ -5869,7 +5991,7 @@
       <c r="CE26" s="32"/>
       <c r="CF26" s="38"/>
     </row>
-    <row r="27" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C27" s="80" t="s">
         <v>91</v>
       </c>
@@ -5960,9 +6082,15 @@
       <c r="AF27" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AG27" s="27"/>
-      <c r="AH27" s="27"/>
-      <c r="AI27" s="27"/>
+      <c r="AG27" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH27" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI27" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ27" s="27"/>
       <c r="AK27" s="27"/>
       <c r="AL27" s="27"/>
@@ -6013,7 +6141,7 @@
       <c r="CE27" s="27"/>
       <c r="CF27" s="36"/>
     </row>
-    <row r="28" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C28" s="80"/>
       <c r="D28" t="s">
         <v>23</v>
@@ -6102,9 +6230,15 @@
       <c r="AF28" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="29"/>
-      <c r="AI28" s="29"/>
+      <c r="AG28" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH28" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI28" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ28" s="29"/>
       <c r="AK28" s="29"/>
       <c r="AL28" s="29"/>
@@ -6155,7 +6289,7 @@
       <c r="CE28" s="29"/>
       <c r="CF28" s="37"/>
     </row>
-    <row r="29" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C29" s="80"/>
       <c r="D29" t="s">
         <v>4</v>
@@ -6244,9 +6378,15 @@
       <c r="AF29" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="29"/>
-      <c r="AI29" s="29"/>
+      <c r="AG29" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH29" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI29" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ29" s="29"/>
       <c r="AK29" s="29"/>
       <c r="AL29" s="29"/>
@@ -6297,7 +6437,7 @@
       <c r="CE29" s="29"/>
       <c r="CF29" s="37"/>
     </row>
-    <row r="30" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C30" s="20"/>
       <c r="D30" s="4" t="s">
         <v>25</v>
@@ -6386,9 +6526,15 @@
       <c r="AF30" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AG30" s="32"/>
-      <c r="AH30" s="32"/>
-      <c r="AI30" s="32"/>
+      <c r="AG30" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH30" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI30" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ30" s="32"/>
       <c r="AK30" s="32"/>
       <c r="AL30" s="32"/>
@@ -6439,7 +6585,7 @@
       <c r="CE30" s="32"/>
       <c r="CF30" s="38"/>
     </row>
-    <row r="31" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C31" s="80" t="s">
         <v>73</v>
       </c>
@@ -6530,9 +6676,15 @@
       <c r="AF31" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AG31" s="27"/>
-      <c r="AH31" s="27"/>
-      <c r="AI31" s="27"/>
+      <c r="AG31" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH31" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI31" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ31" s="27"/>
       <c r="AK31" s="27"/>
       <c r="AL31" s="27"/>
@@ -6583,7 +6735,7 @@
       <c r="CE31" s="27"/>
       <c r="CF31" s="36"/>
     </row>
-    <row r="32" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C32" s="80"/>
       <c r="D32" t="s">
         <v>4</v>
@@ -6672,9 +6824,15 @@
       <c r="AF32" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG32" s="29"/>
-      <c r="AH32" s="29"/>
-      <c r="AI32" s="29"/>
+      <c r="AG32" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH32" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI32" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ32" s="29"/>
       <c r="AK32" s="29"/>
       <c r="AL32" s="29"/>
@@ -6725,7 +6883,7 @@
       <c r="CE32" s="29"/>
       <c r="CF32" s="37"/>
     </row>
-    <row r="33" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C33" s="20"/>
       <c r="D33" s="4" t="s">
         <v>30</v>
@@ -6814,9 +6972,15 @@
       <c r="AF33" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AG33" s="32"/>
-      <c r="AH33" s="32"/>
-      <c r="AI33" s="32"/>
+      <c r="AG33" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH33" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI33" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ33" s="32"/>
       <c r="AK33" s="32"/>
       <c r="AL33" s="32"/>
@@ -6867,7 +7031,7 @@
       <c r="CE33" s="32"/>
       <c r="CF33" s="38"/>
     </row>
-    <row r="34" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C34" s="80" t="s">
         <v>35</v>
       </c>
@@ -6958,9 +7122,15 @@
       <c r="AF34" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AG34" s="27"/>
-      <c r="AH34" s="27"/>
-      <c r="AI34" s="27"/>
+      <c r="AG34" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH34" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI34" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ34" s="27"/>
       <c r="AK34" s="27"/>
       <c r="AL34" s="27"/>
@@ -7011,7 +7181,7 @@
       <c r="CE34" s="27"/>
       <c r="CF34" s="36"/>
     </row>
-    <row r="35" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C35" s="80"/>
       <c r="D35" t="s">
         <v>4</v>
@@ -7100,9 +7270,15 @@
       <c r="AF35" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG35" s="29"/>
-      <c r="AH35" s="29"/>
-      <c r="AI35" s="29"/>
+      <c r="AG35" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH35" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI35" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ35" s="29"/>
       <c r="AK35" s="29"/>
       <c r="AL35" s="29"/>
@@ -7153,7 +7329,7 @@
       <c r="CE35" s="29"/>
       <c r="CF35" s="37"/>
     </row>
-    <row r="36" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C36" s="20"/>
       <c r="D36" s="4" t="s">
         <v>36</v>
@@ -7242,9 +7418,15 @@
       <c r="AF36" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AG36" s="32"/>
-      <c r="AH36" s="32"/>
-      <c r="AI36" s="32"/>
+      <c r="AG36" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH36" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI36" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ36" s="32"/>
       <c r="AK36" s="32"/>
       <c r="AL36" s="32"/>
@@ -7295,7 +7477,7 @@
       <c r="CE36" s="32"/>
       <c r="CF36" s="38"/>
     </row>
-    <row r="37" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C37" s="80" t="s">
         <v>31</v>
       </c>
@@ -7386,9 +7568,15 @@
       <c r="AF37" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AG37" s="27"/>
-      <c r="AH37" s="27"/>
-      <c r="AI37" s="27"/>
+      <c r="AG37" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH37" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI37" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ37" s="27"/>
       <c r="AK37" s="27"/>
       <c r="AL37" s="27"/>
@@ -7439,7 +7627,7 @@
       <c r="CE37" s="27"/>
       <c r="CF37" s="36"/>
     </row>
-    <row r="38" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C38" s="80"/>
       <c r="D38" t="s">
         <v>4</v>
@@ -7528,9 +7716,15 @@
       <c r="AF38" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG38" s="29"/>
-      <c r="AH38" s="29"/>
-      <c r="AI38" s="29"/>
+      <c r="AG38" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH38" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI38" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ38" s="29"/>
       <c r="AK38" s="29"/>
       <c r="AL38" s="29"/>
@@ -7581,7 +7775,7 @@
       <c r="CE38" s="29"/>
       <c r="CF38" s="37"/>
     </row>
-    <row r="39" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C39" s="20"/>
       <c r="D39" s="4" t="s">
         <v>23</v>
@@ -7670,9 +7864,15 @@
       <c r="AF39" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AG39" s="32"/>
-      <c r="AH39" s="32"/>
-      <c r="AI39" s="32"/>
+      <c r="AG39" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH39" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI39" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ39" s="32"/>
       <c r="AK39" s="32"/>
       <c r="AL39" s="32"/>
@@ -7723,7 +7923,7 @@
       <c r="CE39" s="32"/>
       <c r="CF39" s="38"/>
     </row>
-    <row r="40" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C40" s="80" t="s">
         <v>32</v>
       </c>
@@ -7814,9 +8014,15 @@
       <c r="AF40" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AG40" s="27"/>
-      <c r="AH40" s="27"/>
-      <c r="AI40" s="27"/>
+      <c r="AG40" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH40" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI40" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ40" s="27"/>
       <c r="AK40" s="27"/>
       <c r="AL40" s="27"/>
@@ -7867,7 +8073,7 @@
       <c r="CE40" s="27"/>
       <c r="CF40" s="36"/>
     </row>
-    <row r="41" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C41" s="80"/>
       <c r="D41" t="s">
         <v>4</v>
@@ -7956,9 +8162,15 @@
       <c r="AF41" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG41" s="29"/>
-      <c r="AH41" s="29"/>
-      <c r="AI41" s="29"/>
+      <c r="AG41" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH41" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI41" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ41" s="29"/>
       <c r="AK41" s="29"/>
       <c r="AL41" s="29"/>
@@ -8009,7 +8221,7 @@
       <c r="CE41" s="29"/>
       <c r="CF41" s="37"/>
     </row>
-    <row r="42" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C42" s="20"/>
       <c r="D42" s="4" t="s">
         <v>23</v>
@@ -8098,9 +8310,15 @@
       <c r="AF42" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AG42" s="32"/>
-      <c r="AH42" s="32"/>
-      <c r="AI42" s="32"/>
+      <c r="AG42" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH42" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI42" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ42" s="32"/>
       <c r="AK42" s="32"/>
       <c r="AL42" s="32"/>
@@ -8151,7 +8369,7 @@
       <c r="CE42" s="32"/>
       <c r="CF42" s="38"/>
     </row>
-    <row r="43" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C43" s="80" t="s">
         <v>33</v>
       </c>
@@ -8242,9 +8460,15 @@
       <c r="AF43" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AG43" s="27"/>
-      <c r="AH43" s="27"/>
-      <c r="AI43" s="27"/>
+      <c r="AG43" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH43" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI43" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ43" s="27"/>
       <c r="AK43" s="27"/>
       <c r="AL43" s="27"/>
@@ -8295,7 +8519,7 @@
       <c r="CE43" s="27"/>
       <c r="CF43" s="36"/>
     </row>
-    <row r="44" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C44" s="80"/>
       <c r="D44" t="s">
         <v>4</v>
@@ -8384,9 +8608,15 @@
       <c r="AF44" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG44" s="29"/>
-      <c r="AH44" s="29"/>
-      <c r="AI44" s="29"/>
+      <c r="AG44" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH44" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI44" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ44" s="29"/>
       <c r="AK44" s="29"/>
       <c r="AL44" s="29"/>
@@ -8437,7 +8667,7 @@
       <c r="CE44" s="29"/>
       <c r="CF44" s="37"/>
     </row>
-    <row r="45" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C45" s="20"/>
       <c r="D45" s="4" t="s">
         <v>23</v>
@@ -8526,9 +8756,15 @@
       <c r="AF45" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AG45" s="32"/>
-      <c r="AH45" s="32"/>
-      <c r="AI45" s="32"/>
+      <c r="AG45" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH45" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI45" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ45" s="32"/>
       <c r="AK45" s="32"/>
       <c r="AL45" s="32"/>
@@ -8579,7 +8815,7 @@
       <c r="CE45" s="32"/>
       <c r="CF45" s="38"/>
     </row>
-    <row r="46" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C46" s="80" t="s">
         <v>72</v>
       </c>
@@ -8670,9 +8906,15 @@
       <c r="AF46" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AG46" s="27"/>
-      <c r="AH46" s="27"/>
-      <c r="AI46" s="27"/>
+      <c r="AG46" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH46" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI46" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ46" s="27"/>
       <c r="AK46" s="27"/>
       <c r="AL46" s="27"/>
@@ -8723,7 +8965,7 @@
       <c r="CE46" s="27"/>
       <c r="CF46" s="36"/>
     </row>
-    <row r="47" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C47" s="80"/>
       <c r="D47" t="s">
         <v>4</v>
@@ -8812,9 +9054,15 @@
       <c r="AF47" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG47" s="29"/>
-      <c r="AH47" s="29"/>
-      <c r="AI47" s="29"/>
+      <c r="AG47" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH47" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI47" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ47" s="29"/>
       <c r="AK47" s="29"/>
       <c r="AL47" s="29"/>
@@ -8865,7 +9113,7 @@
       <c r="CE47" s="29"/>
       <c r="CF47" s="37"/>
     </row>
-    <row r="48" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C48" s="20"/>
       <c r="D48" s="4" t="s">
         <v>74</v>
@@ -8954,9 +9202,15 @@
       <c r="AF48" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AG48" s="32"/>
-      <c r="AH48" s="32"/>
-      <c r="AI48" s="32"/>
+      <c r="AG48" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH48" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI48" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ48" s="32"/>
       <c r="AK48" s="32"/>
       <c r="AL48" s="32"/>
@@ -9007,7 +9261,7 @@
       <c r="CE48" s="32"/>
       <c r="CF48" s="38"/>
     </row>
-    <row r="49" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C49" s="80" t="s">
         <v>6</v>
       </c>
@@ -9098,9 +9352,15 @@
       <c r="AF49" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AG49" s="27"/>
-      <c r="AH49" s="27"/>
-      <c r="AI49" s="27"/>
+      <c r="AG49" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH49" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI49" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ49" s="27"/>
       <c r="AK49" s="27"/>
       <c r="AL49" s="27"/>
@@ -9151,7 +9411,7 @@
       <c r="CE49" s="27"/>
       <c r="CF49" s="36"/>
     </row>
-    <row r="50" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C50" s="20"/>
       <c r="D50" s="4" t="s">
         <v>4</v>
@@ -9240,9 +9500,15 @@
       <c r="AF50" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AG50" s="32"/>
-      <c r="AH50" s="32"/>
-      <c r="AI50" s="32"/>
+      <c r="AG50" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH50" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI50" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ50" s="32"/>
       <c r="AK50" s="32"/>
       <c r="AL50" s="32"/>
@@ -9293,7 +9559,7 @@
       <c r="CE50" s="32"/>
       <c r="CF50" s="38"/>
     </row>
-    <row r="51" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C51" s="80" t="s">
         <v>7</v>
       </c>
@@ -9384,9 +9650,15 @@
       <c r="AF51" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AG51" s="27"/>
-      <c r="AH51" s="27"/>
-      <c r="AI51" s="27"/>
+      <c r="AG51" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH51" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI51" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ51" s="27"/>
       <c r="AK51" s="27"/>
       <c r="AL51" s="27"/>
@@ -9437,7 +9709,7 @@
       <c r="CE51" s="27"/>
       <c r="CF51" s="36"/>
     </row>
-    <row r="52" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C52" s="80"/>
       <c r="D52" t="s">
         <v>4</v>
@@ -9526,9 +9798,15 @@
       <c r="AF52" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG52" s="29"/>
-      <c r="AH52" s="29"/>
-      <c r="AI52" s="29"/>
+      <c r="AG52" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH52" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI52" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ52" s="29"/>
       <c r="AK52" s="29"/>
       <c r="AL52" s="29"/>
@@ -9579,7 +9857,7 @@
       <c r="CE52" s="29"/>
       <c r="CF52" s="37"/>
     </row>
-    <row r="53" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C53" s="20"/>
       <c r="D53" s="4" t="s">
         <v>23</v>
@@ -9668,9 +9946,15 @@
       <c r="AF53" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AG53" s="32"/>
-      <c r="AH53" s="32"/>
-      <c r="AI53" s="32"/>
+      <c r="AG53" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH53" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI53" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ53" s="32"/>
       <c r="AK53" s="32"/>
       <c r="AL53" s="32"/>
@@ -9721,7 +10005,7 @@
       <c r="CE53" s="32"/>
       <c r="CF53" s="38"/>
     </row>
-    <row r="54" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C54" s="80" t="s">
         <v>52</v>
       </c>
@@ -9812,9 +10096,15 @@
       <c r="AF54" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AG54" s="49"/>
-      <c r="AH54" s="49"/>
-      <c r="AI54" s="49"/>
+      <c r="AG54" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH54" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI54" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ54" s="49"/>
       <c r="AK54" s="49"/>
       <c r="AL54" s="49"/>
@@ -9865,7 +10155,7 @@
       <c r="CE54" s="49"/>
       <c r="CF54" s="44"/>
     </row>
-    <row r="55" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C55" s="80"/>
       <c r="D55" t="s">
         <v>4</v>
@@ -9954,9 +10244,15 @@
       <c r="AF55" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG55" s="50"/>
-      <c r="AH55" s="50"/>
-      <c r="AI55" s="50"/>
+      <c r="AG55" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH55" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI55" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ55" s="50"/>
       <c r="AK55" s="50"/>
       <c r="AL55" s="50"/>
@@ -10007,7 +10303,7 @@
       <c r="CE55" s="50"/>
       <c r="CF55" s="37"/>
     </row>
-    <row r="56" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C56" s="80"/>
       <c r="D56" t="s">
         <v>75</v>
@@ -10090,9 +10386,15 @@
       <c r="AF56" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG56" s="50"/>
-      <c r="AH56" s="50"/>
-      <c r="AI56" s="50"/>
+      <c r="AG56" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH56" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI56" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ56" s="50"/>
       <c r="AK56" s="50"/>
       <c r="AL56" s="50"/>
@@ -10143,7 +10445,7 @@
       <c r="CE56" s="50"/>
       <c r="CF56" s="37"/>
     </row>
-    <row r="57" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C57" s="80"/>
       <c r="D57" t="s">
         <v>55</v>
@@ -10232,9 +10534,15 @@
       <c r="AF57" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG57" s="50"/>
-      <c r="AH57" s="50"/>
-      <c r="AI57" s="50"/>
+      <c r="AG57" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH57" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI57" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ57" s="50"/>
       <c r="AK57" s="50"/>
       <c r="AL57" s="50"/>
@@ -10285,7 +10593,7 @@
       <c r="CE57" s="50"/>
       <c r="CF57" s="37"/>
     </row>
-    <row r="58" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C58" s="80"/>
       <c r="D58" t="s">
         <v>57</v>
@@ -10374,9 +10682,15 @@
       <c r="AF58" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG58" s="50"/>
-      <c r="AH58" s="50"/>
-      <c r="AI58" s="50"/>
+      <c r="AG58" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH58" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI58" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ58" s="50"/>
       <c r="AK58" s="50"/>
       <c r="AL58" s="50"/>
@@ -10427,7 +10741,7 @@
       <c r="CE58" s="50"/>
       <c r="CF58" s="37"/>
     </row>
-    <row r="59" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C59" s="20"/>
       <c r="D59" s="4" t="s">
         <v>59</v>
@@ -10516,9 +10830,15 @@
       <c r="AF59" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="AG59" s="51"/>
-      <c r="AH59" s="51"/>
-      <c r="AI59" s="51"/>
+      <c r="AG59" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH59" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI59" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="AJ59" s="51"/>
       <c r="AK59" s="51"/>
       <c r="AL59" s="51"/>
@@ -10569,7 +10889,7 @@
       <c r="CE59" s="51"/>
       <c r="CF59" s="38"/>
     </row>
-    <row r="60" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C60" s="80" t="s">
         <v>53</v>
       </c>
@@ -10660,9 +10980,15 @@
       <c r="AF60" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AG60" s="27"/>
-      <c r="AH60" s="27"/>
-      <c r="AI60" s="27"/>
+      <c r="AG60" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH60" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI60" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ60" s="27"/>
       <c r="AK60" s="27"/>
       <c r="AL60" s="27"/>
@@ -10713,7 +11039,7 @@
       <c r="CE60" s="27"/>
       <c r="CF60" s="36"/>
     </row>
-    <row r="61" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C61" s="80"/>
       <c r="D61" t="s">
         <v>4</v>
@@ -10802,9 +11128,15 @@
       <c r="AF61" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG61" s="29"/>
-      <c r="AH61" s="29"/>
-      <c r="AI61" s="29"/>
+      <c r="AG61" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH61" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI61" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ61" s="29"/>
       <c r="AK61" s="29"/>
       <c r="AL61" s="29"/>
@@ -10855,7 +11187,7 @@
       <c r="CE61" s="29"/>
       <c r="CF61" s="37"/>
     </row>
-    <row r="62" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C62" s="80"/>
       <c r="D62" t="s">
         <v>71</v>
@@ -10944,9 +11276,15 @@
       <c r="AF62" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG62" s="29"/>
-      <c r="AH62" s="29"/>
-      <c r="AI62" s="29"/>
+      <c r="AG62" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH62" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI62" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ62" s="29"/>
       <c r="AK62" s="29"/>
       <c r="AL62" s="29"/>
@@ -10997,7 +11335,7 @@
       <c r="CE62" s="29"/>
       <c r="CF62" s="37"/>
     </row>
-    <row r="63" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C63" s="80"/>
       <c r="D63" t="s">
         <v>75</v>
@@ -11080,9 +11418,15 @@
       <c r="AF63" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG63" s="29"/>
-      <c r="AH63" s="29"/>
-      <c r="AI63" s="29"/>
+      <c r="AG63" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH63" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI63" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ63" s="29"/>
       <c r="AK63" s="29"/>
       <c r="AL63" s="29"/>
@@ -11133,7 +11477,7 @@
       <c r="CE63" s="29"/>
       <c r="CF63" s="37"/>
     </row>
-    <row r="64" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C64" s="80"/>
       <c r="D64" t="s">
         <v>54</v>
@@ -11222,9 +11566,15 @@
       <c r="AF64" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG64" s="29"/>
-      <c r="AH64" s="29"/>
-      <c r="AI64" s="29"/>
+      <c r="AG64" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH64" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI64" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ64" s="29"/>
       <c r="AK64" s="29"/>
       <c r="AL64" s="29"/>
@@ -11275,7 +11625,7 @@
       <c r="CE64" s="29"/>
       <c r="CF64" s="37"/>
     </row>
-    <row r="65" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="65" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C65" s="80"/>
       <c r="D65" t="s">
         <v>56</v>
@@ -11364,9 +11714,15 @@
       <c r="AF65" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG65" s="29"/>
-      <c r="AH65" s="29"/>
-      <c r="AI65" s="29"/>
+      <c r="AG65" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH65" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI65" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ65" s="29"/>
       <c r="AK65" s="29"/>
       <c r="AL65" s="29"/>
@@ -11417,7 +11773,7 @@
       <c r="CE65" s="29"/>
       <c r="CF65" s="37"/>
     </row>
-    <row r="66" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C66" s="20"/>
       <c r="D66" s="4" t="s">
         <v>58</v>
@@ -11506,9 +11862,15 @@
       <c r="AF66" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AG66" s="32"/>
-      <c r="AH66" s="32"/>
-      <c r="AI66" s="32"/>
+      <c r="AG66" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH66" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI66" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ66" s="32"/>
       <c r="AK66" s="32"/>
       <c r="AL66" s="32"/>
@@ -11559,7 +11921,7 @@
       <c r="CE66" s="32"/>
       <c r="CF66" s="38"/>
     </row>
-    <row r="67" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="67" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C67" s="80" t="s">
         <v>63</v>
       </c>
@@ -11650,9 +12012,15 @@
       <c r="AF67" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AG67" s="12"/>
-      <c r="AH67" s="12"/>
-      <c r="AI67" s="12"/>
+      <c r="AG67" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH67" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI67" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ67" s="12"/>
       <c r="AK67" s="12"/>
       <c r="AL67" s="12"/>
@@ -11703,7 +12071,7 @@
       <c r="CE67" s="12"/>
       <c r="CF67" s="43"/>
     </row>
-    <row r="68" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="68" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C68" s="80"/>
       <c r="D68" t="s">
         <v>4</v>
@@ -11792,9 +12160,15 @@
       <c r="AF68" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="AG68" s="26"/>
-      <c r="AH68" s="26"/>
-      <c r="AI68" s="26"/>
+      <c r="AG68" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH68" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI68" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ68" s="26"/>
       <c r="AK68" s="26"/>
       <c r="AL68" s="26"/>
@@ -11845,7 +12219,7 @@
       <c r="CE68" s="26"/>
       <c r="CF68" s="42"/>
     </row>
-    <row r="69" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C69" s="20"/>
       <c r="D69" s="4" t="s">
         <v>97</v>
@@ -11934,9 +12308,15 @@
       <c r="AF69" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AG69" s="32"/>
-      <c r="AH69" s="32"/>
-      <c r="AI69" s="32"/>
+      <c r="AG69" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH69" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI69" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ69" s="32"/>
       <c r="AK69" s="32"/>
       <c r="AL69" s="32"/>
@@ -11987,7 +12367,7 @@
       <c r="CE69" s="32"/>
       <c r="CF69" s="38"/>
     </row>
-    <row r="70" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="70" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C70" s="80" t="s">
         <v>64</v>
       </c>
@@ -12078,9 +12458,15 @@
       <c r="AF70" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AG70" s="12"/>
-      <c r="AH70" s="12"/>
-      <c r="AI70" s="12"/>
+      <c r="AG70" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH70" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI70" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ70" s="12"/>
       <c r="AK70" s="12"/>
       <c r="AL70" s="12"/>
@@ -12131,7 +12517,7 @@
       <c r="CE70" s="12"/>
       <c r="CF70" s="43"/>
     </row>
-    <row r="71" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="71" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C71" s="80"/>
       <c r="D71" t="s">
         <v>4</v>
@@ -12220,9 +12606,15 @@
       <c r="AF71" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="AG71" s="26"/>
-      <c r="AH71" s="26"/>
-      <c r="AI71" s="26"/>
+      <c r="AG71" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH71" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI71" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ71" s="26"/>
       <c r="AK71" s="26"/>
       <c r="AL71" s="26"/>
@@ -12273,7 +12665,7 @@
       <c r="CE71" s="26"/>
       <c r="CF71" s="42"/>
     </row>
-    <row r="72" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C72" s="20"/>
       <c r="D72" s="4" t="s">
         <v>97</v>
@@ -12362,9 +12754,15 @@
       <c r="AF72" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AG72" s="32"/>
-      <c r="AH72" s="32"/>
-      <c r="AI72" s="32"/>
+      <c r="AG72" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH72" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI72" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ72" s="32"/>
       <c r="AK72" s="32"/>
       <c r="AL72" s="32"/>
@@ -12415,7 +12813,7 @@
       <c r="CE72" s="32"/>
       <c r="CF72" s="38"/>
     </row>
-    <row r="73" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="73" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C73" s="80" t="s">
         <v>65</v>
       </c>
@@ -12506,9 +12904,15 @@
       <c r="AF73" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AG73" s="12"/>
-      <c r="AH73" s="12"/>
-      <c r="AI73" s="12"/>
+      <c r="AG73" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH73" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI73" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ73" s="12"/>
       <c r="AK73" s="12"/>
       <c r="AL73" s="12"/>
@@ -12559,7 +12963,7 @@
       <c r="CE73" s="12"/>
       <c r="CF73" s="43"/>
     </row>
-    <row r="74" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="74" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C74" s="80"/>
       <c r="D74" t="s">
         <v>4</v>
@@ -12648,9 +13052,15 @@
       <c r="AF74" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="AG74" s="26"/>
-      <c r="AH74" s="26"/>
-      <c r="AI74" s="26"/>
+      <c r="AG74" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH74" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI74" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ74" s="26"/>
       <c r="AK74" s="26"/>
       <c r="AL74" s="26"/>
@@ -12701,7 +13111,7 @@
       <c r="CE74" s="26"/>
       <c r="CF74" s="42"/>
     </row>
-    <row r="75" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C75" s="20"/>
       <c r="D75" s="4" t="s">
         <v>99</v>
@@ -12790,9 +13200,15 @@
       <c r="AF75" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AG75" s="32"/>
-      <c r="AH75" s="32"/>
-      <c r="AI75" s="32"/>
+      <c r="AG75" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH75" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI75" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ75" s="32"/>
       <c r="AK75" s="32"/>
       <c r="AL75" s="32"/>
@@ -12843,7 +13259,7 @@
       <c r="CE75" s="32"/>
       <c r="CF75" s="38"/>
     </row>
-    <row r="76" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="76" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C76" s="80" t="s">
         <v>100</v>
       </c>
@@ -12934,9 +13350,15 @@
       <c r="AF76" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AG76" s="27"/>
-      <c r="AH76" s="27"/>
-      <c r="AI76" s="27"/>
+      <c r="AG76" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH76" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI76" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ76" s="27"/>
       <c r="AK76" s="27"/>
       <c r="AL76" s="27"/>
@@ -12987,7 +13409,7 @@
       <c r="CE76" s="27"/>
       <c r="CF76" s="36"/>
     </row>
-    <row r="77" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="77" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C77" s="80"/>
       <c r="D77" t="s">
         <v>4</v>
@@ -13076,9 +13498,15 @@
       <c r="AF77" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG77" s="29"/>
-      <c r="AH77" s="29"/>
-      <c r="AI77" s="29"/>
+      <c r="AG77" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH77" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI77" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ77" s="29"/>
       <c r="AK77" s="29"/>
       <c r="AL77" s="29"/>
@@ -13129,7 +13557,7 @@
       <c r="CE77" s="29"/>
       <c r="CF77" s="37"/>
     </row>
-    <row r="78" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="78" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C78" s="80"/>
       <c r="D78" t="s">
         <v>34</v>
@@ -13218,9 +13646,15 @@
       <c r="AF78" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG78" s="29"/>
-      <c r="AH78" s="29"/>
-      <c r="AI78" s="29"/>
+      <c r="AG78" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH78" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI78" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ78" s="29"/>
       <c r="AK78" s="29"/>
       <c r="AL78" s="29"/>
@@ -13271,7 +13705,7 @@
       <c r="CE78" s="29"/>
       <c r="CF78" s="37"/>
     </row>
-    <row r="79" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="79" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C79" s="80"/>
       <c r="D79" t="s">
         <v>37</v>
@@ -13360,9 +13794,15 @@
       <c r="AF79" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG79" s="29"/>
-      <c r="AH79" s="29"/>
-      <c r="AI79" s="29"/>
+      <c r="AG79" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH79" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI79" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ79" s="29"/>
       <c r="AK79" s="29"/>
       <c r="AL79" s="29"/>
@@ -13413,7 +13853,7 @@
       <c r="CE79" s="29"/>
       <c r="CF79" s="37"/>
     </row>
-    <row r="80" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="80" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C80" s="80"/>
       <c r="D80" t="s">
         <v>76</v>
@@ -13502,9 +13942,15 @@
       <c r="AF80" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG80" s="29"/>
-      <c r="AH80" s="29"/>
-      <c r="AI80" s="29"/>
+      <c r="AG80" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH80" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI80" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ80" s="29"/>
       <c r="AK80" s="29"/>
       <c r="AL80" s="29"/>
@@ -13555,7 +14001,7 @@
       <c r="CE80" s="29"/>
       <c r="CF80" s="37"/>
     </row>
-    <row r="81" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C81" s="20"/>
       <c r="D81" s="4" t="s">
         <v>77</v>
@@ -13644,9 +14090,15 @@
       <c r="AF81" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AG81" s="32"/>
-      <c r="AH81" s="32"/>
-      <c r="AI81" s="32"/>
+      <c r="AG81" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH81" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI81" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ81" s="32"/>
       <c r="AK81" s="32"/>
       <c r="AL81" s="32"/>
@@ -13697,7 +14149,7 @@
       <c r="CE81" s="32"/>
       <c r="CF81" s="38"/>
     </row>
-    <row r="82" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="82" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C82" s="80" t="s">
         <v>104</v>
       </c>
@@ -13780,9 +14232,15 @@
       <c r="AF82" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AG82" s="27"/>
-      <c r="AH82" s="27"/>
-      <c r="AI82" s="27"/>
+      <c r="AG82" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH82" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI82" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ82" s="27"/>
       <c r="AK82" s="27"/>
       <c r="AL82" s="27"/>
@@ -13833,7 +14291,7 @@
       <c r="CE82" s="27"/>
       <c r="CF82" s="36"/>
     </row>
-    <row r="83" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C83" s="20"/>
       <c r="D83" s="4" t="s">
         <v>78</v>
@@ -13914,9 +14372,15 @@
       <c r="AF83" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AG83" s="32"/>
-      <c r="AH83" s="32"/>
-      <c r="AI83" s="32"/>
+      <c r="AG83" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH83" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI83" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ83" s="32"/>
       <c r="AK83" s="32"/>
       <c r="AL83" s="32"/>
@@ -13967,7 +14431,7 @@
       <c r="CE83" s="32"/>
       <c r="CF83" s="38"/>
     </row>
-    <row r="84" spans="3:84" x14ac:dyDescent="0.4">
+    <row r="84" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C84" s="80" t="s">
         <v>108</v>
       </c>
@@ -14058,9 +14522,15 @@
       <c r="AF84" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AG84" s="27"/>
-      <c r="AH84" s="27"/>
-      <c r="AI84" s="27"/>
+      <c r="AG84" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH84" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI84" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ84" s="27"/>
       <c r="AK84" s="27"/>
       <c r="AL84" s="27"/>
@@ -14111,7 +14581,7 @@
       <c r="CE84" s="27"/>
       <c r="CF84" s="36"/>
     </row>
-    <row r="85" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C85" s="20"/>
       <c r="D85" s="4" t="s">
         <v>8</v>
@@ -14200,9 +14670,15 @@
       <c r="AF85" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="AG85" s="32"/>
-      <c r="AH85" s="32"/>
-      <c r="AI85" s="32"/>
+      <c r="AG85" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH85" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI85" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="AJ85" s="32"/>
       <c r="AK85" s="32"/>
       <c r="AL85" s="32"/>
@@ -14344,9 +14820,15 @@
       <c r="AF86" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="AG86" s="40"/>
-      <c r="AH86" s="40"/>
-      <c r="AI86" s="40"/>
+      <c r="AG86" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH86" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI86" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="AJ86" s="40"/>
       <c r="AK86" s="40"/>
       <c r="AL86" s="40"/>
@@ -14486,9 +14968,15 @@
       <c r="AF87" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="AG87" s="40"/>
-      <c r="AH87" s="40"/>
-      <c r="AI87" s="40"/>
+      <c r="AG87" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH87" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI87" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="AJ87" s="40"/>
       <c r="AK87" s="40"/>
       <c r="AL87" s="40"/>
@@ -14622,9 +15110,15 @@
       <c r="AF88" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AG88" s="40"/>
-      <c r="AH88" s="40"/>
-      <c r="AI88" s="40"/>
+      <c r="AG88" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH88" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI88" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="AJ88" s="40"/>
       <c r="AK88" s="40"/>
       <c r="AL88" s="40"/>
@@ -14766,9 +15260,15 @@
       <c r="AF89" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="AG89" s="27"/>
-      <c r="AH89" s="27"/>
-      <c r="AI89" s="27"/>
+      <c r="AG89" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH89" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI89" s="27" t="s">
+        <v>85</v>
+      </c>
       <c r="AJ89" s="27"/>
       <c r="AK89" s="27"/>
       <c r="AL89" s="27"/>
@@ -14908,9 +15408,15 @@
       <c r="AF90" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="AG90" s="32"/>
-      <c r="AH90" s="32"/>
-      <c r="AI90" s="32"/>
+      <c r="AG90" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH90" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI90" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="AJ90" s="32"/>
       <c r="AK90" s="32"/>
       <c r="AL90" s="32"/>
@@ -15052,9 +15558,15 @@
       <c r="AF91" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG91" s="27"/>
-      <c r="AH91" s="27"/>
-      <c r="AI91" s="27"/>
+      <c r="AG91" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH91" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI91" s="27" t="s">
+        <v>68</v>
+      </c>
       <c r="AJ91" s="27"/>
       <c r="AK91" s="27"/>
       <c r="AL91" s="27"/>
@@ -15194,9 +15706,15 @@
       <c r="AF92" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="AG92" s="32"/>
-      <c r="AH92" s="32"/>
-      <c r="AI92" s="32"/>
+      <c r="AG92" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH92" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI92" s="32" t="s">
+        <v>68</v>
+      </c>
       <c r="AJ92" s="32"/>
       <c r="AK92" s="32"/>
       <c r="AL92" s="32"/>
@@ -15336,9 +15854,15 @@
       <c r="AF93" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="AG93" s="105"/>
-      <c r="AH93" s="105"/>
-      <c r="AI93" s="105"/>
+      <c r="AG93" s="105" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH93" s="105" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI93" s="105" t="s">
+        <v>85</v>
+      </c>
       <c r="AJ93" s="105"/>
       <c r="AK93" s="105"/>
       <c r="AL93" s="105"/>
@@ -15389,7 +15913,7 @@
       <c r="CE93" s="105"/>
       <c r="CF93" s="106"/>
     </row>
-    <row r="94" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C94" s="100" t="s">
         <v>111</v>
       </c>
@@ -15436,9 +15960,15 @@
       <c r="AF94" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="AG94" s="40"/>
-      <c r="AH94" s="40"/>
-      <c r="AI94" s="40"/>
+      <c r="AG94" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH94" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI94" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="AJ94" s="40"/>
       <c r="AK94" s="40"/>
       <c r="AL94" s="40"/>
@@ -15536,9 +16066,15 @@
       <c r="AF95" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AG95" s="40"/>
-      <c r="AH95" s="40"/>
-      <c r="AI95" s="40"/>
+      <c r="AG95" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH95" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI95" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="AJ95" s="40"/>
       <c r="AK95" s="40"/>
       <c r="AL95" s="40"/>
@@ -15636,9 +16172,15 @@
       <c r="AF96" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AG96" s="40"/>
-      <c r="AH96" s="40"/>
-      <c r="AI96" s="40"/>
+      <c r="AG96" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH96" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI96" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="AJ96" s="40"/>
       <c r="AK96" s="40"/>
       <c r="AL96" s="40"/>
@@ -15689,7 +16231,7 @@
       <c r="CE96" s="40"/>
       <c r="CF96" s="41"/>
     </row>
-    <row r="97" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C97" s="100" t="s">
         <v>113</v>
       </c>
@@ -15736,9 +16278,15 @@
       <c r="AF97" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="AG97" s="40"/>
-      <c r="AH97" s="40"/>
-      <c r="AI97" s="40"/>
+      <c r="AG97" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH97" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI97" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="AJ97" s="40"/>
       <c r="AK97" s="40"/>
       <c r="AL97" s="40"/>
@@ -15789,7 +16337,7 @@
       <c r="CE97" s="40"/>
       <c r="CF97" s="41"/>
     </row>
-    <row r="98" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C98" s="100" t="s">
         <v>115</v>
       </c>
@@ -15836,9 +16384,15 @@
       <c r="AF98" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="AG98" s="40"/>
-      <c r="AH98" s="40"/>
-      <c r="AI98" s="40"/>
+      <c r="AG98" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH98" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI98" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="AJ98" s="40"/>
       <c r="AK98" s="40"/>
       <c r="AL98" s="40"/>
@@ -15936,9 +16490,15 @@
       <c r="AF99" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="AG99" s="40"/>
-      <c r="AH99" s="40"/>
-      <c r="AI99" s="40"/>
+      <c r="AG99" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH99" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI99" s="40" t="s">
+        <v>85</v>
+      </c>
       <c r="AJ99" s="40"/>
       <c r="AK99" s="40"/>
       <c r="AL99" s="40"/>
@@ -15989,7 +16549,7 @@
       <c r="CE99" s="40"/>
       <c r="CF99" s="41"/>
     </row>
-    <row r="100" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C100" s="100" t="s">
         <v>117</v>
       </c>
@@ -16036,9 +16596,15 @@
       <c r="AF100" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="AG100" s="40"/>
-      <c r="AH100" s="40"/>
-      <c r="AI100" s="40"/>
+      <c r="AG100" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH100" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI100" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="AJ100" s="40"/>
       <c r="AK100" s="40"/>
       <c r="AL100" s="40"/>
@@ -16089,7 +16655,7 @@
       <c r="CE100" s="40"/>
       <c r="CF100" s="41"/>
     </row>
-    <row r="101" spans="3:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="3:84" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C101" s="100" t="s">
         <v>118</v>
       </c>
@@ -16136,9 +16702,15 @@
       <c r="AF101" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="AG101" s="40"/>
-      <c r="AH101" s="40"/>
-      <c r="AI101" s="40"/>
+      <c r="AG101" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH101" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI101" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="AJ101" s="40"/>
       <c r="AK101" s="40"/>
       <c r="AL101" s="40"/>
@@ -16190,7 +16762,14 @@
       <c r="CF101" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="E6:CF101"/>
+  <autoFilter ref="E6:CF101" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="30">
+      <filters>
+        <filter val="仮完成"/>
+        <filter val="未完成"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
